--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="793">
   <si>
     <t>TestCases</t>
   </si>
@@ -1512,6 +1512,918 @@
   </si>
   <si>
     <t>ICIC93046251827</t>
+  </si>
+  <si>
+    <t>9265963858</t>
+  </si>
+  <si>
+    <t>Seema</t>
+  </si>
+  <si>
+    <t>RahimGaba71992@example.net</t>
+  </si>
+  <si>
+    <t>1986-12-10</t>
+  </si>
+  <si>
+    <t>382775317290315</t>
+  </si>
+  <si>
+    <t>e2ed745c186c7ebf</t>
+  </si>
+  <si>
+    <t>472436061117698</t>
+  </si>
+  <si>
+    <t>IDEP176334651816TKGC</t>
+  </si>
+  <si>
+    <t>4217400.0</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>59999662921</t>
+  </si>
+  <si>
+    <t>OPFQKF</t>
+  </si>
+  <si>
+    <t>BNPL1763382956628271</t>
+  </si>
+  <si>
+    <t>59999923791</t>
+  </si>
+  <si>
+    <t>KANEMN</t>
+  </si>
+  <si>
+    <t>59999177602</t>
+  </si>
+  <si>
+    <t>QKFJKP</t>
+  </si>
+  <si>
+    <t>59999651847</t>
+  </si>
+  <si>
+    <t>CUGMNG</t>
+  </si>
+  <si>
+    <t>59999099971</t>
+  </si>
+  <si>
+    <t>MATNTM</t>
+  </si>
+  <si>
+    <t>59999068803</t>
+  </si>
+  <si>
+    <t>QBCAJO</t>
+  </si>
+  <si>
+    <t>59999412084</t>
+  </si>
+  <si>
+    <t>RRNHDN</t>
+  </si>
+  <si>
+    <t>59999448645</t>
+  </si>
+  <si>
+    <t>HMUFER</t>
+  </si>
+  <si>
+    <t>59999138651</t>
+  </si>
+  <si>
+    <t>DJRJPS</t>
+  </si>
+  <si>
+    <t>59999925970</t>
+  </si>
+  <si>
+    <t>BIEUMC</t>
+  </si>
+  <si>
+    <t>140.0</t>
+  </si>
+  <si>
+    <t>9372394063</t>
+  </si>
+  <si>
+    <t>Radhika</t>
+  </si>
+  <si>
+    <t>ChinmayGopal26781@example.net</t>
+  </si>
+  <si>
+    <t>1978-05-17</t>
+  </si>
+  <si>
+    <t>710820107439673</t>
+  </si>
+  <si>
+    <t>9015e12abfe37a85</t>
+  </si>
+  <si>
+    <t>611634466703979</t>
+  </si>
+  <si>
+    <t>335577019372394063</t>
+  </si>
+  <si>
+    <t>ICIC90182798022</t>
+  </si>
+  <si>
+    <t>8567346925</t>
+  </si>
+  <si>
+    <t>CharandeepSavant74780@example.net</t>
+  </si>
+  <si>
+    <t>1974-03-31</t>
+  </si>
+  <si>
+    <t>018451880587055</t>
+  </si>
+  <si>
+    <t>d88a35ed7739c3c3</t>
+  </si>
+  <si>
+    <t>643795535505943</t>
+  </si>
+  <si>
+    <t>335577018567346925</t>
+  </si>
+  <si>
+    <t>ICIC96815163385</t>
+  </si>
+  <si>
+    <t>9135488499</t>
+  </si>
+  <si>
+    <t>Pinky</t>
+  </si>
+  <si>
+    <t>BinodMahal97100@example.net</t>
+  </si>
+  <si>
+    <t>1993-04-28</t>
+  </si>
+  <si>
+    <t>627058890368666</t>
+  </si>
+  <si>
+    <t>d27f867848f6c772</t>
+  </si>
+  <si>
+    <t>622023808535710</t>
+  </si>
+  <si>
+    <t>IDEP761384688789W87X</t>
+  </si>
+  <si>
+    <t>4217596.0</t>
+  </si>
+  <si>
+    <t>9463445406</t>
+  </si>
+  <si>
+    <t>Sushmita</t>
+  </si>
+  <si>
+    <t>AlbertKuruvilla34839@example.net</t>
+  </si>
+  <si>
+    <t>1974-07-17</t>
+  </si>
+  <si>
+    <t>825402153608337</t>
+  </si>
+  <si>
+    <t>1a425cc3f473ef9d</t>
+  </si>
+  <si>
+    <t>268059128245688</t>
+  </si>
+  <si>
+    <t>8507800982</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>VivekGulati17728@example.net</t>
+  </si>
+  <si>
+    <t>1993-04-22</t>
+  </si>
+  <si>
+    <t>210397429479351</t>
+  </si>
+  <si>
+    <t>2c412d2f9a236183</t>
+  </si>
+  <si>
+    <t>220851925121899</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>59999061890</t>
+  </si>
+  <si>
+    <t>RFNHNJ</t>
+  </si>
+  <si>
+    <t>59999473672</t>
+  </si>
+  <si>
+    <t>ACNHBG</t>
+  </si>
+  <si>
+    <t>59999295516</t>
+  </si>
+  <si>
+    <t>UIGIJG</t>
+  </si>
+  <si>
+    <t>59999191542</t>
+  </si>
+  <si>
+    <t>UUTAPU</t>
+  </si>
+  <si>
+    <t>59999024917</t>
+  </si>
+  <si>
+    <t>OTMSGM</t>
+  </si>
+  <si>
+    <t>59999475458</t>
+  </si>
+  <si>
+    <t>ANUBBF</t>
+  </si>
+  <si>
+    <t>59999375224</t>
+  </si>
+  <si>
+    <t>GKPFIT</t>
+  </si>
+  <si>
+    <t>59999953516</t>
+  </si>
+  <si>
+    <t>IROCHM</t>
+  </si>
+  <si>
+    <t>59999412945</t>
+  </si>
+  <si>
+    <t>EHGHDE</t>
+  </si>
+  <si>
+    <t>59999516283</t>
+  </si>
+  <si>
+    <t>IOURTN</t>
+  </si>
+  <si>
+    <t>6377155747</t>
+  </si>
+  <si>
+    <t>VivekGarde56356@example.net</t>
+  </si>
+  <si>
+    <t>1972-08-19</t>
+  </si>
+  <si>
+    <t>897165059424769</t>
+  </si>
+  <si>
+    <t>2918ce59a2cc2052</t>
+  </si>
+  <si>
+    <t>176751175621123</t>
+  </si>
+  <si>
+    <t>IDEP163785865886ZBE1</t>
+  </si>
+  <si>
+    <t>4217604.0</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>59999417375</t>
+  </si>
+  <si>
+    <t>KGTPRA</t>
+  </si>
+  <si>
+    <t>59999777923</t>
+  </si>
+  <si>
+    <t>ARRTKT</t>
+  </si>
+  <si>
+    <t>59999372621</t>
+  </si>
+  <si>
+    <t>BSPTGM</t>
+  </si>
+  <si>
+    <t>59999274578</t>
+  </si>
+  <si>
+    <t>JRKHMQ</t>
+  </si>
+  <si>
+    <t>59999123749</t>
+  </si>
+  <si>
+    <t>NPCNKI</t>
+  </si>
+  <si>
+    <t>59999497245</t>
+  </si>
+  <si>
+    <t>DMTCEI</t>
+  </si>
+  <si>
+    <t>59999743852</t>
+  </si>
+  <si>
+    <t>QGRDNQ</t>
+  </si>
+  <si>
+    <t>59999842957</t>
+  </si>
+  <si>
+    <t>IUDNRL</t>
+  </si>
+  <si>
+    <t>59999530230</t>
+  </si>
+  <si>
+    <t>HFHIJF</t>
+  </si>
+  <si>
+    <t>59999382999</t>
+  </si>
+  <si>
+    <t>AUPSKK</t>
+  </si>
+  <si>
+    <t>9274517413</t>
+  </si>
+  <si>
+    <t>Alka</t>
+  </si>
+  <si>
+    <t>UdayPrasad20312@example.net</t>
+  </si>
+  <si>
+    <t>1971-01-04</t>
+  </si>
+  <si>
+    <t>819294031538697</t>
+  </si>
+  <si>
+    <t>77c9cf2acd5eb899</t>
+  </si>
+  <si>
+    <t>401975020640452</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>59999614251</t>
+  </si>
+  <si>
+    <t>NGTJNQ</t>
+  </si>
+  <si>
+    <t>59999102574</t>
+  </si>
+  <si>
+    <t>FSTMNO</t>
+  </si>
+  <si>
+    <t>59999250803</t>
+  </si>
+  <si>
+    <t>SNLTLQ</t>
+  </si>
+  <si>
+    <t>59999868217</t>
+  </si>
+  <si>
+    <t>CCOQSG</t>
+  </si>
+  <si>
+    <t>59999723340</t>
+  </si>
+  <si>
+    <t>LLOJHO</t>
+  </si>
+  <si>
+    <t>59999538314</t>
+  </si>
+  <si>
+    <t>HENCFM</t>
+  </si>
+  <si>
+    <t>59999234501</t>
+  </si>
+  <si>
+    <t>GDFFBG</t>
+  </si>
+  <si>
+    <t>59999279626</t>
+  </si>
+  <si>
+    <t>PHADUJ</t>
+  </si>
+  <si>
+    <t>59999249162</t>
+  </si>
+  <si>
+    <t>OSKMPO</t>
+  </si>
+  <si>
+    <t>59999642840</t>
+  </si>
+  <si>
+    <t>GOMMKU</t>
+  </si>
+  <si>
+    <t>7712616793</t>
+  </si>
+  <si>
+    <t>Mukti</t>
+  </si>
+  <si>
+    <t>GauravSamra76876@example.net</t>
+  </si>
+  <si>
+    <t>1977-02-25</t>
+  </si>
+  <si>
+    <t>681469632579689</t>
+  </si>
+  <si>
+    <t>d741e3c9aee454c0</t>
+  </si>
+  <si>
+    <t>112913820128949</t>
+  </si>
+  <si>
+    <t>IDEP167386785828E29F</t>
+  </si>
+  <si>
+    <t>4217613.0</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>59999145535</t>
+  </si>
+  <si>
+    <t>GDCPIG</t>
+  </si>
+  <si>
+    <t>59999849821</t>
+  </si>
+  <si>
+    <t>BAKKBH</t>
+  </si>
+  <si>
+    <t>59999758701</t>
+  </si>
+  <si>
+    <t>FDQBFO</t>
+  </si>
+  <si>
+    <t>59999860135</t>
+  </si>
+  <si>
+    <t>DBOEBN</t>
+  </si>
+  <si>
+    <t>59999171695</t>
+  </si>
+  <si>
+    <t>SSLRUI</t>
+  </si>
+  <si>
+    <t>59999643299</t>
+  </si>
+  <si>
+    <t>GTIOPB</t>
+  </si>
+  <si>
+    <t>59999487234</t>
+  </si>
+  <si>
+    <t>SIUSGC</t>
+  </si>
+  <si>
+    <t>59999069811</t>
+  </si>
+  <si>
+    <t>TGQOQT</t>
+  </si>
+  <si>
+    <t>59999940550</t>
+  </si>
+  <si>
+    <t>UDSDGT</t>
+  </si>
+  <si>
+    <t>59999836875</t>
+  </si>
+  <si>
+    <t>HDPQDU</t>
+  </si>
+  <si>
+    <t>9132152019</t>
+  </si>
+  <si>
+    <t>Narmada</t>
+  </si>
+  <si>
+    <t>RadheMogul23436@example.net</t>
+  </si>
+  <si>
+    <t>1983-05-07</t>
+  </si>
+  <si>
+    <t>844925281202943</t>
+  </si>
+  <si>
+    <t>f1ca9a0d49e26b2b</t>
+  </si>
+  <si>
+    <t>978842061910918</t>
+  </si>
+  <si>
+    <t>IDEP731618861352ISDE</t>
+  </si>
+  <si>
+    <t>4217791.0</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>59999924442</t>
+  </si>
+  <si>
+    <t>GKQKMU</t>
+  </si>
+  <si>
+    <t>BNPL7613198646687186</t>
+  </si>
+  <si>
+    <t>59999214422</t>
+  </si>
+  <si>
+    <t>FNBGOQ</t>
+  </si>
+  <si>
+    <t>59999690859</t>
+  </si>
+  <si>
+    <t>FTEDHT</t>
+  </si>
+  <si>
+    <t>59999562140</t>
+  </si>
+  <si>
+    <t>AIHFJD</t>
+  </si>
+  <si>
+    <t>59999939429</t>
+  </si>
+  <si>
+    <t>DNATAA</t>
+  </si>
+  <si>
+    <t>59999198721</t>
+  </si>
+  <si>
+    <t>CFFBCB</t>
+  </si>
+  <si>
+    <t>59999711342</t>
+  </si>
+  <si>
+    <t>LEBUUK</t>
+  </si>
+  <si>
+    <t>59999316094</t>
+  </si>
+  <si>
+    <t>OCLSHD</t>
+  </si>
+  <si>
+    <t>59999526391</t>
+  </si>
+  <si>
+    <t>JLEPBJ</t>
+  </si>
+  <si>
+    <t>59999745450</t>
+  </si>
+  <si>
+    <t>USAMTI</t>
+  </si>
+  <si>
+    <t>161.0</t>
+  </si>
+  <si>
+    <t>33557701null</t>
+  </si>
+  <si>
+    <t>ICIC98781019558</t>
+  </si>
+  <si>
+    <t>ICIC86015603915</t>
+  </si>
+  <si>
+    <t>8158182468</t>
+  </si>
+  <si>
+    <t>Yasmin</t>
+  </si>
+  <si>
+    <t>DeepChander15907@example.net</t>
+  </si>
+  <si>
+    <t>1982-03-23</t>
+  </si>
+  <si>
+    <t>857308315105024</t>
+  </si>
+  <si>
+    <t>ae876c571c24b3b1</t>
+  </si>
+  <si>
+    <t>119416558125601</t>
+  </si>
+  <si>
+    <t>IDEP317627169852UF3B</t>
+  </si>
+  <si>
+    <t>4217888.0</t>
+  </si>
+  <si>
+    <t>6665958737</t>
+  </si>
+  <si>
+    <t>Aabha</t>
+  </si>
+  <si>
+    <t>ManojLal38010@example.net</t>
+  </si>
+  <si>
+    <t>1991-06-10</t>
+  </si>
+  <si>
+    <t>316413688779713</t>
+  </si>
+  <si>
+    <t>8f32984e7182a4fb</t>
+  </si>
+  <si>
+    <t>725247766921598</t>
+  </si>
+  <si>
+    <t>9578114346</t>
+  </si>
+  <si>
+    <t>Anusha</t>
+  </si>
+  <si>
+    <t>NavalRaj19527@example.net</t>
+  </si>
+  <si>
+    <t>572540007028692</t>
+  </si>
+  <si>
+    <t>18acb344cba29a40</t>
+  </si>
+  <si>
+    <t>974053718056097</t>
+  </si>
+  <si>
+    <t>6047373590</t>
+  </si>
+  <si>
+    <t>Usha</t>
+  </si>
+  <si>
+    <t>MohitTandon50751@example.net</t>
+  </si>
+  <si>
+    <t>1970-03-10</t>
+  </si>
+  <si>
+    <t>243035886391922</t>
+  </si>
+  <si>
+    <t>80bb47d86a39fed0</t>
+  </si>
+  <si>
+    <t>603906049396095</t>
+  </si>
+  <si>
+    <t>9134898809</t>
+  </si>
+  <si>
+    <t>Swati</t>
+  </si>
+  <si>
+    <t>BishnuTandon69091@example.net</t>
+  </si>
+  <si>
+    <t>1975-03-20</t>
+  </si>
+  <si>
+    <t>819552322464745</t>
+  </si>
+  <si>
+    <t>46653c0e4a759bdf</t>
+  </si>
+  <si>
+    <t>396789716446653</t>
+  </si>
+  <si>
+    <t>IDEP371644773265F6SM</t>
+  </si>
+  <si>
+    <t>4218146.0</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>59999790122</t>
+  </si>
+  <si>
+    <t>DCCCFQ</t>
+  </si>
+  <si>
+    <t>BNPL3617449886469163</t>
+  </si>
+  <si>
+    <t>59999409737</t>
+  </si>
+  <si>
+    <t>PSIEHF</t>
+  </si>
+  <si>
+    <t>59999596701</t>
+  </si>
+  <si>
+    <t>BJJMTC</t>
+  </si>
+  <si>
+    <t>59999658775</t>
+  </si>
+  <si>
+    <t>CUINDR</t>
+  </si>
+  <si>
+    <t>59999129606</t>
+  </si>
+  <si>
+    <t>HOGDIE</t>
+  </si>
+  <si>
+    <t>59999688823</t>
+  </si>
+  <si>
+    <t>OABEES</t>
+  </si>
+  <si>
+    <t>59999193121</t>
+  </si>
+  <si>
+    <t>EOBPAB</t>
+  </si>
+  <si>
+    <t>59999400812</t>
+  </si>
+  <si>
+    <t>TRDTFN</t>
+  </si>
+  <si>
+    <t>59999484821</t>
+  </si>
+  <si>
+    <t>NRCFBE</t>
+  </si>
+  <si>
+    <t>59999426347</t>
+  </si>
+  <si>
+    <t>IEMFUS</t>
+  </si>
+  <si>
+    <t>179.0</t>
+  </si>
+  <si>
+    <t>ICIC94967996942</t>
+  </si>
+  <si>
+    <t>ICIC94083425997</t>
   </si>
 </sst>
 </file>
@@ -2011,7 +2923,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>480</v>
+        <v>756</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2131,22 +3043,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>440</v>
+        <v>763</v>
       </c>
       <c r="C2" t="s">
-        <v>448</v>
+        <v>768</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>468</v>
+        <v>788</v>
       </c>
       <c r="F2" t="s">
         <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>469</v>
+        <v>789</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2483,7 +3395,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>451</v>
+        <v>771</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -2580,16 +3492,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>485</v>
+        <v>761</v>
       </c>
       <c r="C2" t="s">
-        <v>486</v>
+        <v>762</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>484</v>
+        <v>760</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2692,7 +3604,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>478</v>
+        <v>724</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -2704,7 +3616,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>479</v>
+        <v>791</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -2713,7 +3625,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>140.0</v>
+        <v>198.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -2805,13 +3717,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>481</v>
+        <v>757</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>482</v>
+        <v>758</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>483</v>
+        <v>759</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3160,13 +4072,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>481</v>
+        <v>757</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>482</v>
+        <v>758</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>483</v>
+        <v>759</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3475,13 +4387,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>481</v>
+        <v>757</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>482</v>
+        <v>758</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>483</v>
+        <v>759</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -3575,13 +4487,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>481</v>
+        <v>757</v>
       </c>
       <c r="E2" t="s">
-        <v>482</v>
+        <v>758</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>483</v>
+        <v>759</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3890,13 +4802,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>481</v>
+        <v>757</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>482</v>
+        <v>758</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>483</v>
+        <v>759</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -4015,7 +4927,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>487</v>
+        <v>724</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -4027,7 +4939,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>488</v>
+        <v>792</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -4036,7 +4948,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>140.0</v>
+        <v>198.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -4163,10 +5075,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>480</v>
+        <v>756</v>
       </c>
       <c r="E2" t="s">
-        <v>482</v>
+        <v>758</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -4178,7 +5090,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>484</v>
+        <v>760</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -4187,10 +5099,10 @@
         <v>68</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>440</v>
+        <v>763</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4216846.0</v>
+        <v>4218146.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -4216,7 +5128,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>482</v>
+        <v>758</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -4228,7 +5140,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>484</v>
+        <v>760</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -4237,10 +5149,10 @@
         <v>68</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>440</v>
+        <v>763</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4216846.0</v>
+        <v>4218146.0</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>69</v>
@@ -4300,7 +5212,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>480</v>
+        <v>756</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4317,7 +5229,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>480</v>
+        <v>756</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4334,7 +5246,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>480</v>
+        <v>756</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4351,7 +5263,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>480</v>
+        <v>756</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4368,7 +5280,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>480</v>
+        <v>756</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4537,7 +5449,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>484</v>
+        <v>760</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -4781,7 +5693,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>484</v>
+        <v>760</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -4996,7 +5908,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>481</v>
+        <v>757</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -5079,7 +5991,7 @@
         <v>118</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>440</v>
+        <v>763</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -5377,7 +6289,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>440</v>
+        <v>763</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5397,7 +6309,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>440</v>
+        <v>763</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5417,7 +6329,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>440</v>
+        <v>763</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -5437,7 +6349,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>440</v>
+        <v>763</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5457,7 +6369,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>440</v>
+        <v>763</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5477,7 +6389,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>440</v>
+        <v>763</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5497,7 +6409,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>440</v>
+        <v>763</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -5556,7 +6468,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>448</v>
+        <v>768</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -5570,7 +6482,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>448</v>
+        <v>768</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3327" uniqueCount="865">
   <si>
     <t>TestCases</t>
   </si>
@@ -2424,6 +2424,222 @@
   </si>
   <si>
     <t>ICIC94083425997</t>
+  </si>
+  <si>
+    <t>8641073703</t>
+  </si>
+  <si>
+    <t>Kasturi</t>
+  </si>
+  <si>
+    <t>AatifPersad94617@example.net</t>
+  </si>
+  <si>
+    <t>1991-09-27</t>
+  </si>
+  <si>
+    <t>125141940510599</t>
+  </si>
+  <si>
+    <t>acefe8cffcba4162</t>
+  </si>
+  <si>
+    <t>635750034551021</t>
+  </si>
+  <si>
+    <t>IDEP6731697831257DMB</t>
+  </si>
+  <si>
+    <t>4218409.0</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>59999620857</t>
+  </si>
+  <si>
+    <t>EUPJQA</t>
+  </si>
+  <si>
+    <t>BNPL3167699668195312</t>
+  </si>
+  <si>
+    <t>59999793448</t>
+  </si>
+  <si>
+    <t>FDEHTT</t>
+  </si>
+  <si>
+    <t>59999424130</t>
+  </si>
+  <si>
+    <t>EFKPTN</t>
+  </si>
+  <si>
+    <t>59999780553</t>
+  </si>
+  <si>
+    <t>CJLBQP</t>
+  </si>
+  <si>
+    <t>59999720696</t>
+  </si>
+  <si>
+    <t>OJFEFK</t>
+  </si>
+  <si>
+    <t>59999333290</t>
+  </si>
+  <si>
+    <t>PIPECQ</t>
+  </si>
+  <si>
+    <t>59999498116</t>
+  </si>
+  <si>
+    <t>HBMIDS</t>
+  </si>
+  <si>
+    <t>59999282146</t>
+  </si>
+  <si>
+    <t>BALBMQ</t>
+  </si>
+  <si>
+    <t>59999950243</t>
+  </si>
+  <si>
+    <t>TPNEIQ</t>
+  </si>
+  <si>
+    <t>59999049934</t>
+  </si>
+  <si>
+    <t>MTBFBI</t>
+  </si>
+  <si>
+    <t>198.0</t>
+  </si>
+  <si>
+    <t>ICIC90490537062</t>
+  </si>
+  <si>
+    <t>ICIC95254467315</t>
+  </si>
+  <si>
+    <t>9054870607</t>
+  </si>
+  <si>
+    <t>Tanuja</t>
+  </si>
+  <si>
+    <t>RajeshSalvi88506@example.net</t>
+  </si>
+  <si>
+    <t>1979-11-22</t>
+  </si>
+  <si>
+    <t>255999496362141</t>
+  </si>
+  <si>
+    <t>0eb50f423879b1a9</t>
+  </si>
+  <si>
+    <t>400306453850551</t>
+  </si>
+  <si>
+    <t>IDEP136736152889YX2Z</t>
+  </si>
+  <si>
+    <t>4218566.0</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>59999635676</t>
+  </si>
+  <si>
+    <t>EACHGK</t>
+  </si>
+  <si>
+    <t>BNPL7163363585857396</t>
+  </si>
+  <si>
+    <t>59999895832</t>
+  </si>
+  <si>
+    <t>RLJCGR</t>
+  </si>
+  <si>
+    <t>59999620746</t>
+  </si>
+  <si>
+    <t>ONGCGO</t>
+  </si>
+  <si>
+    <t>59999960541</t>
+  </si>
+  <si>
+    <t>JAAEKM</t>
+  </si>
+  <si>
+    <t>59999934705</t>
+  </si>
+  <si>
+    <t>KQLNUF</t>
+  </si>
+  <si>
+    <t>59999729732</t>
+  </si>
+  <si>
+    <t>LCNMIA</t>
+  </si>
+  <si>
+    <t>59999044113</t>
+  </si>
+  <si>
+    <t>EGBNOP</t>
+  </si>
+  <si>
+    <t>59999624023</t>
+  </si>
+  <si>
+    <t>HOEFUE</t>
+  </si>
+  <si>
+    <t>59999455394</t>
+  </si>
+  <si>
+    <t>RDPFLN</t>
+  </si>
+  <si>
+    <t>59999582857</t>
+  </si>
+  <si>
+    <t>SOTRIB</t>
   </si>
 </sst>
 </file>
@@ -2923,7 +3139,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>756</v>
+        <v>831</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3043,22 +3259,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>763</v>
+        <v>838</v>
       </c>
       <c r="C2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>788</v>
+        <v>863</v>
       </c>
       <c r="F2" t="s">
         <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>789</v>
+        <v>864</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -3395,7 +3611,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>771</v>
+        <v>846</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -3492,16 +3708,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>761</v>
+        <v>836</v>
       </c>
       <c r="C2" t="s">
-        <v>762</v>
+        <v>837</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>760</v>
+        <v>835</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3616,7 +3832,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>791</v>
+        <v>829</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3625,7 +3841,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>198.0</v>
+        <v>179.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -3717,13 +3933,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>757</v>
+        <v>832</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>758</v>
+        <v>833</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>759</v>
+        <v>834</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4072,13 +4288,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>757</v>
+        <v>832</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>758</v>
+        <v>833</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>759</v>
+        <v>834</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4387,13 +4603,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>757</v>
+        <v>832</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>758</v>
+        <v>833</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>759</v>
+        <v>834</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -4487,13 +4703,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>757</v>
+        <v>832</v>
       </c>
       <c r="E2" t="s">
-        <v>758</v>
+        <v>833</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>759</v>
+        <v>834</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4802,13 +5018,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>757</v>
+        <v>832</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>758</v>
+        <v>833</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>759</v>
+        <v>834</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -4939,7 +5155,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>792</v>
+        <v>830</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -4948,7 +5164,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>198.0</v>
+        <v>179.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -5075,10 +5291,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>756</v>
+        <v>831</v>
       </c>
       <c r="E2" t="s">
-        <v>758</v>
+        <v>833</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -5090,7 +5306,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>760</v>
+        <v>835</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -5099,10 +5315,10 @@
         <v>68</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>763</v>
+        <v>838</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4218146.0</v>
+        <v>4218566.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -5128,7 +5344,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>758</v>
+        <v>833</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -5140,7 +5356,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>760</v>
+        <v>835</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -5149,10 +5365,10 @@
         <v>68</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>763</v>
+        <v>838</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4218146.0</v>
+        <v>4218566.0</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>69</v>
@@ -5212,7 +5428,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>756</v>
+        <v>831</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5229,7 +5445,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>756</v>
+        <v>831</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5246,7 +5462,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>756</v>
+        <v>831</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5263,7 +5479,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>756</v>
+        <v>831</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5280,7 +5496,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>756</v>
+        <v>831</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5449,7 +5665,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>760</v>
+        <v>835</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -5693,7 +5909,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>760</v>
+        <v>835</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -5908,7 +6124,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>757</v>
+        <v>832</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -5991,7 +6207,7 @@
         <v>118</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>763</v>
+        <v>838</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -6289,7 +6505,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>763</v>
+        <v>838</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -6309,7 +6525,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>763</v>
+        <v>838</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -6329,7 +6545,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>763</v>
+        <v>838</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -6349,7 +6565,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>763</v>
+        <v>838</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -6369,7 +6585,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>763</v>
+        <v>838</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -6389,7 +6605,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>763</v>
+        <v>838</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6409,7 +6625,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>763</v>
+        <v>838</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -6468,7 +6684,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -6482,7 +6698,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3327" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3460" uniqueCount="899">
   <si>
     <t>TestCases</t>
   </si>
@@ -2640,6 +2640,108 @@
   </si>
   <si>
     <t>SOTRIB</t>
+  </si>
+  <si>
+    <t>8303921122</t>
+  </si>
+  <si>
+    <t>TarunBarad63876@example.net</t>
+  </si>
+  <si>
+    <t>1980-04-27</t>
+  </si>
+  <si>
+    <t>879449423536314</t>
+  </si>
+  <si>
+    <t>ad83e2e938aab6ac</t>
+  </si>
+  <si>
+    <t>275984183500746</t>
+  </si>
+  <si>
+    <t>IDEP731648386586K32F</t>
+  </si>
+  <si>
+    <t>4218767.0</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>59999546282</t>
+  </si>
+  <si>
+    <t>NFCORO</t>
+  </si>
+  <si>
+    <t>BNPL3176485869761736</t>
+  </si>
+  <si>
+    <t>59999926404</t>
+  </si>
+  <si>
+    <t>JCOLJR</t>
+  </si>
+  <si>
+    <t>59999537442</t>
+  </si>
+  <si>
+    <t>MFNJRU</t>
+  </si>
+  <si>
+    <t>59999845293</t>
+  </si>
+  <si>
+    <t>SKSQNJ</t>
+  </si>
+  <si>
+    <t>59999414201</t>
+  </si>
+  <si>
+    <t>HOEHDR</t>
+  </si>
+  <si>
+    <t>59999465423</t>
+  </si>
+  <si>
+    <t>TAQIOC</t>
+  </si>
+  <si>
+    <t>59999196178</t>
+  </si>
+  <si>
+    <t>BAPDEB</t>
+  </si>
+  <si>
+    <t>59999952515</t>
+  </si>
+  <si>
+    <t>SRCJTL</t>
+  </si>
+  <si>
+    <t>59999104717</t>
+  </si>
+  <si>
+    <t>BDMSNO</t>
+  </si>
+  <si>
+    <t>59999121487</t>
+  </si>
+  <si>
+    <t>FAQCFK</t>
+  </si>
+  <si>
+    <t>ICIC80740797755</t>
+  </si>
+  <si>
+    <t>ICIC98110547633</t>
   </si>
 </sst>
 </file>
@@ -3139,7 +3241,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>831</v>
+        <v>865</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3259,22 +3361,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>838</v>
+        <v>871</v>
       </c>
       <c r="C2" t="s">
-        <v>767</v>
+        <v>875</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>863</v>
+        <v>895</v>
       </c>
       <c r="F2" t="s">
         <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>864</v>
+        <v>896</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -3611,7 +3713,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>846</v>
+        <v>878</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -3708,16 +3810,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>836</v>
+        <v>869</v>
       </c>
       <c r="C2" t="s">
-        <v>837</v>
+        <v>870</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>835</v>
+        <v>868</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3832,7 +3934,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>829</v>
+        <v>897</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3841,7 +3943,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>179.0</v>
+        <v>106.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -3933,13 +4035,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>832</v>
+        <v>379</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>833</v>
+        <v>866</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>834</v>
+        <v>867</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4288,13 +4390,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>832</v>
+        <v>379</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>833</v>
+        <v>866</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>834</v>
+        <v>867</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4603,13 +4705,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>832</v>
+        <v>379</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>833</v>
+        <v>866</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>834</v>
+        <v>867</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -4703,13 +4805,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>832</v>
+        <v>379</v>
       </c>
       <c r="E2" t="s">
-        <v>833</v>
+        <v>866</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>834</v>
+        <v>867</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -5018,13 +5120,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>832</v>
+        <v>379</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>833</v>
+        <v>866</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>834</v>
+        <v>867</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -5155,7 +5257,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>830</v>
+        <v>898</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -5164,7 +5266,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>179.0</v>
+        <v>106.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -5291,10 +5393,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>831</v>
+        <v>865</v>
       </c>
       <c r="E2" t="s">
-        <v>833</v>
+        <v>866</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -5306,7 +5408,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>835</v>
+        <v>868</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -5315,10 +5417,10 @@
         <v>68</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>838</v>
+        <v>871</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4218566.0</v>
+        <v>4218767.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -5344,7 +5446,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>833</v>
+        <v>866</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -5356,7 +5458,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>835</v>
+        <v>868</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -5365,10 +5467,10 @@
         <v>68</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>838</v>
+        <v>871</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4218566.0</v>
+        <v>4218767.0</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>69</v>
@@ -5428,7 +5530,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>831</v>
+        <v>865</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5445,7 +5547,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>831</v>
+        <v>865</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5462,7 +5564,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>831</v>
+        <v>865</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5479,7 +5581,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>831</v>
+        <v>865</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5496,7 +5598,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>831</v>
+        <v>865</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5665,7 +5767,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>835</v>
+        <v>868</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -5909,7 +6011,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>835</v>
+        <v>868</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -6124,7 +6226,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>832</v>
+        <v>379</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -6207,7 +6309,7 @@
         <v>118</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>838</v>
+        <v>871</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -6505,7 +6607,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>838</v>
+        <v>871</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -6525,7 +6627,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>838</v>
+        <v>871</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -6545,7 +6647,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>838</v>
+        <v>871</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -6565,7 +6667,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>838</v>
+        <v>871</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -6585,7 +6687,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>838</v>
+        <v>871</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -6605,7 +6707,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>838</v>
+        <v>871</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6625,7 +6727,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>838</v>
+        <v>871</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -6684,7 +6786,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>767</v>
+        <v>875</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -6698,7 +6800,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>767</v>
+        <v>875</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3460" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3391" uniqueCount="867">
   <si>
     <t>TestCases</t>
   </si>
@@ -2426,322 +2426,226 @@
     <t>ICIC94083425997</t>
   </si>
   <si>
-    <t>8641073703</t>
-  </si>
-  <si>
-    <t>Kasturi</t>
-  </si>
-  <si>
-    <t>AatifPersad94617@example.net</t>
-  </si>
-  <si>
-    <t>1991-09-27</t>
-  </si>
-  <si>
-    <t>125141940510599</t>
-  </si>
-  <si>
-    <t>acefe8cffcba4162</t>
-  </si>
-  <si>
-    <t>635750034551021</t>
-  </si>
-  <si>
-    <t>IDEP6731697831257DMB</t>
-  </si>
-  <si>
-    <t>4218409.0</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>59999620857</t>
-  </si>
-  <si>
-    <t>EUPJQA</t>
-  </si>
-  <si>
-    <t>BNPL3167699668195312</t>
-  </si>
-  <si>
-    <t>59999793448</t>
-  </si>
-  <si>
-    <t>FDEHTT</t>
-  </si>
-  <si>
-    <t>59999424130</t>
-  </si>
-  <si>
-    <t>EFKPTN</t>
-  </si>
-  <si>
-    <t>59999780553</t>
-  </si>
-  <si>
-    <t>CJLBQP</t>
-  </si>
-  <si>
-    <t>59999720696</t>
-  </si>
-  <si>
-    <t>OJFEFK</t>
-  </si>
-  <si>
-    <t>59999333290</t>
-  </si>
-  <si>
-    <t>PIPECQ</t>
-  </si>
-  <si>
-    <t>59999498116</t>
-  </si>
-  <si>
-    <t>HBMIDS</t>
-  </si>
-  <si>
-    <t>59999282146</t>
-  </si>
-  <si>
-    <t>BALBMQ</t>
-  </si>
-  <si>
-    <t>59999950243</t>
-  </si>
-  <si>
-    <t>TPNEIQ</t>
-  </si>
-  <si>
-    <t>59999049934</t>
-  </si>
-  <si>
-    <t>MTBFBI</t>
+    <t>9230968535</t>
+  </si>
+  <si>
+    <t>AjinkyaMathai95645@example.net</t>
+  </si>
+  <si>
+    <t>1987-06-30</t>
+  </si>
+  <si>
+    <t>169862993163575</t>
+  </si>
+  <si>
+    <t>d2d8a91b43819a47</t>
+  </si>
+  <si>
+    <t>410353865892688</t>
+  </si>
+  <si>
+    <t>IDEP137656492692XZL3</t>
+  </si>
+  <si>
+    <t>4219297.0</t>
+  </si>
+  <si>
+    <t>6227141367</t>
+  </si>
+  <si>
+    <t>Indira</t>
+  </si>
+  <si>
+    <t>RatanBala89295@example.net</t>
+  </si>
+  <si>
+    <t>1982-08-23</t>
+  </si>
+  <si>
+    <t>225855399668082</t>
+  </si>
+  <si>
+    <t>40fc6d698c463ce9</t>
+  </si>
+  <si>
+    <t>585444021495042</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>59999844175</t>
+  </si>
+  <si>
+    <t>UPGSIA</t>
+  </si>
+  <si>
+    <t>59999666703</t>
+  </si>
+  <si>
+    <t>BDDDPM</t>
+  </si>
+  <si>
+    <t>59999413853</t>
+  </si>
+  <si>
+    <t>QUTOUD</t>
+  </si>
+  <si>
+    <t>59999934017</t>
+  </si>
+  <si>
+    <t>KMELIE</t>
+  </si>
+  <si>
+    <t>59999883286</t>
+  </si>
+  <si>
+    <t>SUOGTC</t>
+  </si>
+  <si>
+    <t>59999102414</t>
+  </si>
+  <si>
+    <t>ONCHLK</t>
+  </si>
+  <si>
+    <t>59999487319</t>
+  </si>
+  <si>
+    <t>FQJDQB</t>
+  </si>
+  <si>
+    <t>59999171413</t>
+  </si>
+  <si>
+    <t>JFGDNR</t>
+  </si>
+  <si>
+    <t>59999322695</t>
+  </si>
+  <si>
+    <t>UULEUC</t>
+  </si>
+  <si>
+    <t>59999088659</t>
+  </si>
+  <si>
+    <t>FQOBKM</t>
+  </si>
+  <si>
+    <t>8180555349</t>
+  </si>
+  <si>
+    <t>Nitika</t>
+  </si>
+  <si>
+    <t>KoushtubhNarain22330@example.net</t>
+  </si>
+  <si>
+    <t>1995-07-05</t>
+  </si>
+  <si>
+    <t>834057374644781</t>
+  </si>
+  <si>
+    <t>c7e7e6c85ae3fd33</t>
+  </si>
+  <si>
+    <t>881617847253296</t>
+  </si>
+  <si>
+    <t>IDEP641719344678C8HG</t>
+  </si>
+  <si>
+    <t>4219395.0</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>59999760134</t>
+  </si>
+  <si>
+    <t>LFQTMB</t>
+  </si>
+  <si>
+    <t>BNPL4761195818366189</t>
+  </si>
+  <si>
+    <t>59999586216</t>
+  </si>
+  <si>
+    <t>ADDCES</t>
+  </si>
+  <si>
+    <t>59999997575</t>
+  </si>
+  <si>
+    <t>JARUDI</t>
+  </si>
+  <si>
+    <t>59999740911</t>
+  </si>
+  <si>
+    <t>BJGOBM</t>
+  </si>
+  <si>
+    <t>59999861387</t>
+  </si>
+  <si>
+    <t>QQOUHB</t>
+  </si>
+  <si>
+    <t>59999596777</t>
+  </si>
+  <si>
+    <t>SGSUKG</t>
+  </si>
+  <si>
+    <t>59999936877</t>
+  </si>
+  <si>
+    <t>BANMUO</t>
+  </si>
+  <si>
+    <t>59999723245</t>
+  </si>
+  <si>
+    <t>KLDMJF</t>
+  </si>
+  <si>
+    <t>59999305205</t>
+  </si>
+  <si>
+    <t>UIRSUN</t>
+  </si>
+  <si>
+    <t>59999895106</t>
+  </si>
+  <si>
+    <t>JMUODL</t>
   </si>
   <si>
     <t>198.0</t>
   </si>
   <si>
-    <t>ICIC90490537062</t>
-  </si>
-  <si>
-    <t>ICIC95254467315</t>
-  </si>
-  <si>
-    <t>9054870607</t>
-  </si>
-  <si>
-    <t>Tanuja</t>
-  </si>
-  <si>
-    <t>RajeshSalvi88506@example.net</t>
-  </si>
-  <si>
-    <t>1979-11-22</t>
-  </si>
-  <si>
-    <t>255999496362141</t>
-  </si>
-  <si>
-    <t>0eb50f423879b1a9</t>
-  </si>
-  <si>
-    <t>400306453850551</t>
-  </si>
-  <si>
-    <t>IDEP136736152889YX2Z</t>
-  </si>
-  <si>
-    <t>4218566.0</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>59999635676</t>
-  </si>
-  <si>
-    <t>EACHGK</t>
-  </si>
-  <si>
-    <t>BNPL7163363585857396</t>
-  </si>
-  <si>
-    <t>59999895832</t>
-  </si>
-  <si>
-    <t>RLJCGR</t>
-  </si>
-  <si>
-    <t>59999620746</t>
-  </si>
-  <si>
-    <t>ONGCGO</t>
-  </si>
-  <si>
-    <t>59999960541</t>
-  </si>
-  <si>
-    <t>JAAEKM</t>
-  </si>
-  <si>
-    <t>59999934705</t>
-  </si>
-  <si>
-    <t>KQLNUF</t>
-  </si>
-  <si>
-    <t>59999729732</t>
-  </si>
-  <si>
-    <t>LCNMIA</t>
-  </si>
-  <si>
-    <t>59999044113</t>
-  </si>
-  <si>
-    <t>EGBNOP</t>
-  </si>
-  <si>
-    <t>59999624023</t>
-  </si>
-  <si>
-    <t>HOEFUE</t>
-  </si>
-  <si>
-    <t>59999455394</t>
-  </si>
-  <si>
-    <t>RDPFLN</t>
-  </si>
-  <si>
-    <t>59999582857</t>
-  </si>
-  <si>
-    <t>SOTRIB</t>
-  </si>
-  <si>
-    <t>8303921122</t>
-  </si>
-  <si>
-    <t>TarunBarad63876@example.net</t>
-  </si>
-  <si>
-    <t>1980-04-27</t>
-  </si>
-  <si>
-    <t>879449423536314</t>
-  </si>
-  <si>
-    <t>ad83e2e938aab6ac</t>
-  </si>
-  <si>
-    <t>275984183500746</t>
-  </si>
-  <si>
-    <t>IDEP731648386586K32F</t>
-  </si>
-  <si>
-    <t>4218767.0</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>59999546282</t>
-  </si>
-  <si>
-    <t>NFCORO</t>
-  </si>
-  <si>
-    <t>BNPL3176485869761736</t>
-  </si>
-  <si>
-    <t>59999926404</t>
-  </si>
-  <si>
-    <t>JCOLJR</t>
-  </si>
-  <si>
-    <t>59999537442</t>
-  </si>
-  <si>
-    <t>MFNJRU</t>
-  </si>
-  <si>
-    <t>59999845293</t>
-  </si>
-  <si>
-    <t>SKSQNJ</t>
-  </si>
-  <si>
-    <t>59999414201</t>
-  </si>
-  <si>
-    <t>HOEHDR</t>
-  </si>
-  <si>
-    <t>59999465423</t>
-  </si>
-  <si>
-    <t>TAQIOC</t>
-  </si>
-  <si>
-    <t>59999196178</t>
-  </si>
-  <si>
-    <t>BAPDEB</t>
-  </si>
-  <si>
-    <t>59999952515</t>
-  </si>
-  <si>
-    <t>SRCJTL</t>
-  </si>
-  <si>
-    <t>59999104717</t>
-  </si>
-  <si>
-    <t>BDMSNO</t>
-  </si>
-  <si>
-    <t>59999121487</t>
-  </si>
-  <si>
-    <t>FAQCFK</t>
-  </si>
-  <si>
-    <t>ICIC80740797755</t>
-  </si>
-  <si>
-    <t>ICIC98110547633</t>
+    <t>ICIC99439393683</t>
+  </si>
+  <si>
+    <t>ICIC81371312609</t>
   </si>
 </sst>
 </file>
@@ -3241,7 +3145,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>865</v>
+        <v>831</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3361,22 +3265,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>871</v>
+        <v>838</v>
       </c>
       <c r="C2" t="s">
-        <v>875</v>
+        <v>446</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>895</v>
+        <v>862</v>
       </c>
       <c r="F2" t="s">
         <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>896</v>
+        <v>863</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -3713,7 +3617,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>878</v>
+        <v>845</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -3810,16 +3714,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>869</v>
+        <v>836</v>
       </c>
       <c r="C2" t="s">
-        <v>870</v>
+        <v>837</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>868</v>
+        <v>835</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3934,7 +3838,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>897</v>
+        <v>865</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3943,7 +3847,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>106.0</v>
+        <v>167.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -4035,13 +3939,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>379</v>
+        <v>832</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>866</v>
+        <v>833</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4390,13 +4294,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>379</v>
+        <v>832</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>866</v>
+        <v>833</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4705,13 +4609,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>379</v>
+        <v>832</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>866</v>
+        <v>833</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -4805,13 +4709,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>379</v>
+        <v>832</v>
       </c>
       <c r="E2" t="s">
-        <v>866</v>
+        <v>833</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -5120,13 +5024,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>379</v>
+        <v>832</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>866</v>
+        <v>833</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -5257,7 +5161,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>898</v>
+        <v>866</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -5266,7 +5170,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>106.0</v>
+        <v>167.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -5393,10 +5297,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>865</v>
+        <v>831</v>
       </c>
       <c r="E2" t="s">
-        <v>866</v>
+        <v>833</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -5408,7 +5312,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>868</v>
+        <v>835</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -5417,10 +5321,10 @@
         <v>68</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>871</v>
+        <v>838</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4218767.0</v>
+        <v>4219395.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -5446,7 +5350,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>866</v>
+        <v>833</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -5458,7 +5362,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>868</v>
+        <v>835</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -5467,10 +5371,10 @@
         <v>68</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>871</v>
+        <v>838</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4218767.0</v>
+        <v>4219395.0</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>69</v>
@@ -5530,7 +5434,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>865</v>
+        <v>831</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5547,7 +5451,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>865</v>
+        <v>831</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5564,7 +5468,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>865</v>
+        <v>831</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5581,7 +5485,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>865</v>
+        <v>831</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5598,7 +5502,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>865</v>
+        <v>831</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5767,7 +5671,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>868</v>
+        <v>835</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -6011,7 +5915,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>868</v>
+        <v>835</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -6226,7 +6130,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>379</v>
+        <v>832</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -6309,7 +6213,7 @@
         <v>118</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>871</v>
+        <v>838</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -6607,7 +6511,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>871</v>
+        <v>838</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -6627,7 +6531,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>871</v>
+        <v>838</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -6647,7 +6551,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>871</v>
+        <v>838</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -6667,7 +6571,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>871</v>
+        <v>838</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -6687,7 +6591,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>871</v>
+        <v>838</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -6707,7 +6611,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>871</v>
+        <v>838</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6727,7 +6631,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>871</v>
+        <v>838</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -6786,7 +6690,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>875</v>
+        <v>446</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -6800,7 +6704,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>875</v>
+        <v>446</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3391" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3928" uniqueCount="999">
   <si>
     <t>TestCases</t>
   </si>
@@ -2646,6 +2646,402 @@
   </si>
   <si>
     <t>ICIC81371312609</t>
+  </si>
+  <si>
+    <t>8336689721</t>
+  </si>
+  <si>
+    <t>Anshula</t>
+  </si>
+  <si>
+    <t>HanumanBasak18715@example.net</t>
+  </si>
+  <si>
+    <t>1990-03-31</t>
+  </si>
+  <si>
+    <t>212221266046560</t>
+  </si>
+  <si>
+    <t>a797f8b66178a142</t>
+  </si>
+  <si>
+    <t>470030223132331</t>
+  </si>
+  <si>
+    <t>IDEP674136248383NMED</t>
+  </si>
+  <si>
+    <t>4219614.0</t>
+  </si>
+  <si>
+    <t>7572013598</t>
+  </si>
+  <si>
+    <t>Sweta</t>
+  </si>
+  <si>
+    <t>JackSaha18833@example.net</t>
+  </si>
+  <si>
+    <t>1983-02-11</t>
+  </si>
+  <si>
+    <t>507398362288322</t>
+  </si>
+  <si>
+    <t>b232e8d6ac14e610</t>
+  </si>
+  <si>
+    <t>445103009809257</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>59999420588</t>
+  </si>
+  <si>
+    <t>MSBOPC</t>
+  </si>
+  <si>
+    <t>59999848107</t>
+  </si>
+  <si>
+    <t>LFKNFU</t>
+  </si>
+  <si>
+    <t>59999506983</t>
+  </si>
+  <si>
+    <t>PUEMLP</t>
+  </si>
+  <si>
+    <t>59999768500</t>
+  </si>
+  <si>
+    <t>OLFOKT</t>
+  </si>
+  <si>
+    <t>59999101600</t>
+  </si>
+  <si>
+    <t>FLCSQF</t>
+  </si>
+  <si>
+    <t>59999457643</t>
+  </si>
+  <si>
+    <t>JSTROU</t>
+  </si>
+  <si>
+    <t>59999457760</t>
+  </si>
+  <si>
+    <t>HQTSQF</t>
+  </si>
+  <si>
+    <t>59999215512</t>
+  </si>
+  <si>
+    <t>OIGBSD</t>
+  </si>
+  <si>
+    <t>59999713575</t>
+  </si>
+  <si>
+    <t>JBTMIS</t>
+  </si>
+  <si>
+    <t>59999210844</t>
+  </si>
+  <si>
+    <t>KFMONN</t>
+  </si>
+  <si>
+    <t>9988519250</t>
+  </si>
+  <si>
+    <t>Sheetal</t>
+  </si>
+  <si>
+    <t>OmarSule74254@example.net</t>
+  </si>
+  <si>
+    <t>1990-04-18</t>
+  </si>
+  <si>
+    <t>888568056681029</t>
+  </si>
+  <si>
+    <t>30ee6524d3c5343e</t>
+  </si>
+  <si>
+    <t>227715719171472</t>
+  </si>
+  <si>
+    <t>IDEP614738642816FBMI</t>
+  </si>
+  <si>
+    <t>4219686.0</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>59999944665</t>
+  </si>
+  <si>
+    <t>KMQOTH</t>
+  </si>
+  <si>
+    <t>BNPL6174388674414961</t>
+  </si>
+  <si>
+    <t>59999805281</t>
+  </si>
+  <si>
+    <t>FLFGQH</t>
+  </si>
+  <si>
+    <t>59999946422</t>
+  </si>
+  <si>
+    <t>GAMHJU</t>
+  </si>
+  <si>
+    <t>59999200470</t>
+  </si>
+  <si>
+    <t>OIOMUQ</t>
+  </si>
+  <si>
+    <t>59999188058</t>
+  </si>
+  <si>
+    <t>BPURER</t>
+  </si>
+  <si>
+    <t>59999945479</t>
+  </si>
+  <si>
+    <t>BMBQKO</t>
+  </si>
+  <si>
+    <t>59999114735</t>
+  </si>
+  <si>
+    <t>QNHSTJ</t>
+  </si>
+  <si>
+    <t>59999574281</t>
+  </si>
+  <si>
+    <t>POPJOL</t>
+  </si>
+  <si>
+    <t>59999007731</t>
+  </si>
+  <si>
+    <t>AFCHOH</t>
+  </si>
+  <si>
+    <t>59999395502</t>
+  </si>
+  <si>
+    <t>MRDHQC</t>
+  </si>
+  <si>
+    <t>167.0</t>
+  </si>
+  <si>
+    <t>ICIC97812088545</t>
+  </si>
+  <si>
+    <t>ICIC91244408614</t>
+  </si>
+  <si>
+    <t>6076323594</t>
+  </si>
+  <si>
+    <t>Anshu</t>
+  </si>
+  <si>
+    <t>ZeeshanMangat82475@example.net</t>
+  </si>
+  <si>
+    <t>1974-11-14</t>
+  </si>
+  <si>
+    <t>957306075331334</t>
+  </si>
+  <si>
+    <t>33bfef227dfd2b4b</t>
+  </si>
+  <si>
+    <t>507073458058539</t>
+  </si>
+  <si>
+    <t>IDEP647148425565VMIQ</t>
+  </si>
+  <si>
+    <t>4219722.0</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>59999332781</t>
+  </si>
+  <si>
+    <t>PQMRHU</t>
+  </si>
+  <si>
+    <t>59999726571</t>
+  </si>
+  <si>
+    <t>UJHCEA</t>
+  </si>
+  <si>
+    <t>59999999151</t>
+  </si>
+  <si>
+    <t>QBFKHI</t>
+  </si>
+  <si>
+    <t>59999248588</t>
+  </si>
+  <si>
+    <t>SNEECN</t>
+  </si>
+  <si>
+    <t>59999786972</t>
+  </si>
+  <si>
+    <t>SDPPOT</t>
+  </si>
+  <si>
+    <t>59999373737</t>
+  </si>
+  <si>
+    <t>JRFBGS</t>
+  </si>
+  <si>
+    <t>59999789504</t>
+  </si>
+  <si>
+    <t>FDBBQT</t>
+  </si>
+  <si>
+    <t>59999352483</t>
+  </si>
+  <si>
+    <t>HSTUDA</t>
+  </si>
+  <si>
+    <t>59999067282</t>
+  </si>
+  <si>
+    <t>HHEFAJ</t>
+  </si>
+  <si>
+    <t>59999148094</t>
+  </si>
+  <si>
+    <t>EMFQOS</t>
+  </si>
+  <si>
+    <t>8544448285</t>
+  </si>
+  <si>
+    <t>KushalLall44260@example.net</t>
+  </si>
+  <si>
+    <t>1990-05-30</t>
+  </si>
+  <si>
+    <t>738398083604998</t>
+  </si>
+  <si>
+    <t>e793cc84de8eeee5</t>
+  </si>
+  <si>
+    <t>183575427069992</t>
+  </si>
+  <si>
+    <t>IDEP614742379698A4SN</t>
+  </si>
+  <si>
+    <t>4219742.0</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>59999873235</t>
+  </si>
+  <si>
+    <t>OOPGCK</t>
+  </si>
+  <si>
+    <t>59999432084</t>
+  </si>
+  <si>
+    <t>UOAIGG</t>
+  </si>
+  <si>
+    <t>59999391601</t>
+  </si>
+  <si>
+    <t>DRRTMH</t>
+  </si>
+  <si>
+    <t>59999367168</t>
+  </si>
+  <si>
+    <t>IAIETH</t>
+  </si>
+  <si>
+    <t>59999042315</t>
+  </si>
+  <si>
+    <t>NCQBAQ</t>
+  </si>
+  <si>
+    <t>59999617348</t>
+  </si>
+  <si>
+    <t>SDSEUJ</t>
+  </si>
+  <si>
+    <t>59999708694</t>
+  </si>
+  <si>
+    <t>KBGEFR</t>
+  </si>
+  <si>
+    <t>59999840824</t>
+  </si>
+  <si>
+    <t>HDTBFB</t>
+  </si>
+  <si>
+    <t>59999601259</t>
+  </si>
+  <si>
+    <t>DJNNJP</t>
+  </si>
+  <si>
+    <t>59999913104</t>
+  </si>
+  <si>
+    <t>NSURCL</t>
   </si>
 </sst>
 </file>
@@ -3145,7 +3541,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>831</v>
+        <v>970</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3265,22 +3661,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>838</v>
+        <v>976</v>
       </c>
       <c r="C2" t="s">
-        <v>446</v>
+        <v>978</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>862</v>
+        <v>997</v>
       </c>
       <c r="F2" t="s">
         <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>863</v>
+        <v>998</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -3616,9 +4012,7 @@
       <c r="A2" t="s">
         <v>153</v>
       </c>
-      <c r="B2" t="s">
-        <v>845</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" s="2" t="s">
         <v>156</v>
       </c>
@@ -3714,16 +4108,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>836</v>
+        <v>974</v>
       </c>
       <c r="C2" t="s">
-        <v>837</v>
+        <v>975</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>835</v>
+        <v>973</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3838,7 +4232,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>865</v>
+        <v>937</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3847,7 +4241,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>167.0</v>
+        <v>175.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -3939,13 +4333,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>832</v>
+        <v>543</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>833</v>
+        <v>971</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>834</v>
+        <v>972</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4294,13 +4688,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>832</v>
+        <v>543</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>833</v>
+        <v>971</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>834</v>
+        <v>972</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4609,13 +5003,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>832</v>
+        <v>543</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>833</v>
+        <v>971</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>834</v>
+        <v>972</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -4709,13 +5103,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>832</v>
+        <v>543</v>
       </c>
       <c r="E2" t="s">
-        <v>833</v>
+        <v>971</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>834</v>
+        <v>972</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -5024,13 +5418,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>832</v>
+        <v>543</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>833</v>
+        <v>971</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>834</v>
+        <v>972</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -5161,7 +5555,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>866</v>
+        <v>938</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -5170,7 +5564,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>167.0</v>
+        <v>175.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -5297,10 +5691,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>831</v>
+        <v>970</v>
       </c>
       <c r="E2" t="s">
-        <v>833</v>
+        <v>971</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -5312,7 +5706,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>835</v>
+        <v>973</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -5321,10 +5715,10 @@
         <v>68</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>838</v>
+        <v>976</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4219395.0</v>
+        <v>4219742.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -5350,7 +5744,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>833</v>
+        <v>971</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -5362,7 +5756,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>835</v>
+        <v>973</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -5371,10 +5765,10 @@
         <v>68</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>838</v>
+        <v>976</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4219395.0</v>
+        <v>4219742.0</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>69</v>
@@ -5434,7 +5828,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>831</v>
+        <v>970</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5451,7 +5845,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>831</v>
+        <v>970</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5468,7 +5862,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>831</v>
+        <v>970</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5485,7 +5879,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>831</v>
+        <v>970</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5502,7 +5896,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>831</v>
+        <v>970</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5671,7 +6065,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>835</v>
+        <v>973</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -5915,7 +6309,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>835</v>
+        <v>973</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -6130,7 +6524,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>832</v>
+        <v>543</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -6213,7 +6607,7 @@
         <v>118</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>838</v>
+        <v>976</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -6511,7 +6905,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>838</v>
+        <v>976</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -6531,7 +6925,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>838</v>
+        <v>976</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -6551,7 +6945,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>838</v>
+        <v>976</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -6571,7 +6965,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>838</v>
+        <v>976</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -6591,7 +6985,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>838</v>
+        <v>976</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -6611,7 +7005,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>838</v>
+        <v>976</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6631,7 +7025,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>838</v>
+        <v>976</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -6690,7 +7084,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>446</v>
+        <v>978</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -6704,7 +7098,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>446</v>
+        <v>978</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3928" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5560" uniqueCount="1362">
   <si>
     <t>TestCases</t>
   </si>
@@ -3042,6 +3042,1095 @@
   </si>
   <si>
     <t>NSURCL</t>
+  </si>
+  <si>
+    <t>8956907498</t>
+  </si>
+  <si>
+    <t>Akhila</t>
+  </si>
+  <si>
+    <t>MukundGoswami38499@example.net</t>
+  </si>
+  <si>
+    <t>1983-08-31</t>
+  </si>
+  <si>
+    <t>241744419840170</t>
+  </si>
+  <si>
+    <t>a245fe8bc50c5d92</t>
+  </si>
+  <si>
+    <t>996921049680450</t>
+  </si>
+  <si>
+    <t>IDEP671489786269RK4P</t>
+  </si>
+  <si>
+    <t>4219985.0</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>59999060870</t>
+  </si>
+  <si>
+    <t>KKQCTN</t>
+  </si>
+  <si>
+    <t>59999103549</t>
+  </si>
+  <si>
+    <t>IAAQIF</t>
+  </si>
+  <si>
+    <t>59999272850</t>
+  </si>
+  <si>
+    <t>ASJGCP</t>
+  </si>
+  <si>
+    <t>59999839717</t>
+  </si>
+  <si>
+    <t>LIADQF</t>
+  </si>
+  <si>
+    <t>59999088423</t>
+  </si>
+  <si>
+    <t>IKFTKL</t>
+  </si>
+  <si>
+    <t>59999422070</t>
+  </si>
+  <si>
+    <t>ROANRC</t>
+  </si>
+  <si>
+    <t>59999321087</t>
+  </si>
+  <si>
+    <t>UFMMPR</t>
+  </si>
+  <si>
+    <t>59999550054</t>
+  </si>
+  <si>
+    <t>QMBKGK</t>
+  </si>
+  <si>
+    <t>59999432886</t>
+  </si>
+  <si>
+    <t>CNAHRM</t>
+  </si>
+  <si>
+    <t>59999220877</t>
+  </si>
+  <si>
+    <t>SCHQEG</t>
+  </si>
+  <si>
+    <t>7860429502</t>
+  </si>
+  <si>
+    <t>Tulsi</t>
+  </si>
+  <si>
+    <t>HassanChandran48207@example.net</t>
+  </si>
+  <si>
+    <t>1977-08-08</t>
+  </si>
+  <si>
+    <t>227209765844091</t>
+  </si>
+  <si>
+    <t>f291a23d4c0cb6b8</t>
+  </si>
+  <si>
+    <t>945937491842036</t>
+  </si>
+  <si>
+    <t>IDEP167418898167QGUC</t>
+  </si>
+  <si>
+    <t>4220000.0</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>59999551239</t>
+  </si>
+  <si>
+    <t>IFUGUA</t>
+  </si>
+  <si>
+    <t>BNPL1746118942387439</t>
+  </si>
+  <si>
+    <t>59999908217</t>
+  </si>
+  <si>
+    <t>GLUKSB</t>
+  </si>
+  <si>
+    <t>59999372101</t>
+  </si>
+  <si>
+    <t>TMTKFE</t>
+  </si>
+  <si>
+    <t>59999858613</t>
+  </si>
+  <si>
+    <t>BNSKEQ</t>
+  </si>
+  <si>
+    <t>59999905686</t>
+  </si>
+  <si>
+    <t>HONLJO</t>
+  </si>
+  <si>
+    <t>59999076173</t>
+  </si>
+  <si>
+    <t>BNPNDB</t>
+  </si>
+  <si>
+    <t>59999151843</t>
+  </si>
+  <si>
+    <t>EEHBEP</t>
+  </si>
+  <si>
+    <t>59999142708</t>
+  </si>
+  <si>
+    <t>FGJJMJ</t>
+  </si>
+  <si>
+    <t>59999157677</t>
+  </si>
+  <si>
+    <t>UQOOUP</t>
+  </si>
+  <si>
+    <t>59999522276</t>
+  </si>
+  <si>
+    <t>MDPALF</t>
+  </si>
+  <si>
+    <t>175.0</t>
+  </si>
+  <si>
+    <t>ICIC81137827452</t>
+  </si>
+  <si>
+    <t>ICIC90828870946</t>
+  </si>
+  <si>
+    <t>7073819610</t>
+  </si>
+  <si>
+    <t>PirzadaKarnik73050@example.net</t>
+  </si>
+  <si>
+    <t>1988-11-21</t>
+  </si>
+  <si>
+    <t>541548092144637</t>
+  </si>
+  <si>
+    <t>fb339491a19537e6</t>
+  </si>
+  <si>
+    <t>969121051270570</t>
+  </si>
+  <si>
+    <t>IDEP764111798632M3ON</t>
+  </si>
+  <si>
+    <t>4220006.0</t>
+  </si>
+  <si>
+    <t>9351948241</t>
+  </si>
+  <si>
+    <t>Naina</t>
+  </si>
+  <si>
+    <t>NawabNaidu69132@example.net</t>
+  </si>
+  <si>
+    <t>1994-01-01</t>
+  </si>
+  <si>
+    <t>481022190383242</t>
+  </si>
+  <si>
+    <t>ba639c4eadfee83b</t>
+  </si>
+  <si>
+    <t>461537896696708</t>
+  </si>
+  <si>
+    <t>IDEP674112877762N8FQ</t>
+  </si>
+  <si>
+    <t>4220010.0</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>59999213897</t>
+  </si>
+  <si>
+    <t>IFGJDT</t>
+  </si>
+  <si>
+    <t>BNPL4167122848586435</t>
+  </si>
+  <si>
+    <t>59999471562</t>
+  </si>
+  <si>
+    <t>THTEHD</t>
+  </si>
+  <si>
+    <t>59999776018</t>
+  </si>
+  <si>
+    <t>SQFRAH</t>
+  </si>
+  <si>
+    <t>59999251203</t>
+  </si>
+  <si>
+    <t>ATCULF</t>
+  </si>
+  <si>
+    <t>59999614419</t>
+  </si>
+  <si>
+    <t>FJAGQC</t>
+  </si>
+  <si>
+    <t>59999520056</t>
+  </si>
+  <si>
+    <t>EPHQEN</t>
+  </si>
+  <si>
+    <t>59999679718</t>
+  </si>
+  <si>
+    <t>PHQTUQ</t>
+  </si>
+  <si>
+    <t>59999846556</t>
+  </si>
+  <si>
+    <t>RQQKLI</t>
+  </si>
+  <si>
+    <t>59999995752</t>
+  </si>
+  <si>
+    <t>KDEFTQ</t>
+  </si>
+  <si>
+    <t>59999034997</t>
+  </si>
+  <si>
+    <t>ULURFL</t>
+  </si>
+  <si>
+    <t>123.0</t>
+  </si>
+  <si>
+    <t>ICIC83952150075</t>
+  </si>
+  <si>
+    <t>ICIC97153031073</t>
+  </si>
+  <si>
+    <t>9215247781</t>
+  </si>
+  <si>
+    <t>ArvindSarna72002@example.net</t>
+  </si>
+  <si>
+    <t>1976-09-18</t>
+  </si>
+  <si>
+    <t>402970803150539</t>
+  </si>
+  <si>
+    <t>18c0707f37607824</t>
+  </si>
+  <si>
+    <t>341563113818210</t>
+  </si>
+  <si>
+    <t>IDEP176412955122WT63</t>
+  </si>
+  <si>
+    <t>4220021.0</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>59999003998</t>
+  </si>
+  <si>
+    <t>TQRDNO</t>
+  </si>
+  <si>
+    <t>BNPL7416131527162518</t>
+  </si>
+  <si>
+    <t>59999702997</t>
+  </si>
+  <si>
+    <t>SIHTQT</t>
+  </si>
+  <si>
+    <t>59999828777</t>
+  </si>
+  <si>
+    <t>HFOEMP</t>
+  </si>
+  <si>
+    <t>59999729015</t>
+  </si>
+  <si>
+    <t>FFLBNN</t>
+  </si>
+  <si>
+    <t>59999835856</t>
+  </si>
+  <si>
+    <t>LNKFMU</t>
+  </si>
+  <si>
+    <t>59999118326</t>
+  </si>
+  <si>
+    <t>NPSCIM</t>
+  </si>
+  <si>
+    <t>59999163814</t>
+  </si>
+  <si>
+    <t>QEKOES</t>
+  </si>
+  <si>
+    <t>59999446402</t>
+  </si>
+  <si>
+    <t>RIUMAT</t>
+  </si>
+  <si>
+    <t>59999852133</t>
+  </si>
+  <si>
+    <t>MARUDB</t>
+  </si>
+  <si>
+    <t>59999815948</t>
+  </si>
+  <si>
+    <t>ITGMLU</t>
+  </si>
+  <si>
+    <t>139.0</t>
+  </si>
+  <si>
+    <t>ICIC83414473655</t>
+  </si>
+  <si>
+    <t>ICIC99662683411</t>
+  </si>
+  <si>
+    <t>8849616950</t>
+  </si>
+  <si>
+    <t>Jyoti</t>
+  </si>
+  <si>
+    <t>DaanishVarghese24762@example.net</t>
+  </si>
+  <si>
+    <t>1974-09-02</t>
+  </si>
+  <si>
+    <t>789320474958930</t>
+  </si>
+  <si>
+    <t>209523b4cd9d5bf5</t>
+  </si>
+  <si>
+    <t>293066775153270</t>
+  </si>
+  <si>
+    <t>IDEP167427856928XRI4</t>
+  </si>
+  <si>
+    <t>4220182.0</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>59999302419</t>
+  </si>
+  <si>
+    <t>HCBFND</t>
+  </si>
+  <si>
+    <t>BNPL7146272453544257</t>
+  </si>
+  <si>
+    <t>59999995781</t>
+  </si>
+  <si>
+    <t>MCCQMG</t>
+  </si>
+  <si>
+    <t>59999937001</t>
+  </si>
+  <si>
+    <t>PSACDO</t>
+  </si>
+  <si>
+    <t>59999972057</t>
+  </si>
+  <si>
+    <t>TPJQRN</t>
+  </si>
+  <si>
+    <t>59999019716</t>
+  </si>
+  <si>
+    <t>PBAERM</t>
+  </si>
+  <si>
+    <t>59999499728</t>
+  </si>
+  <si>
+    <t>JIDIPG</t>
+  </si>
+  <si>
+    <t>59999851410</t>
+  </si>
+  <si>
+    <t>GGCPME</t>
+  </si>
+  <si>
+    <t>59999776802</t>
+  </si>
+  <si>
+    <t>CRIQGL</t>
+  </si>
+  <si>
+    <t>59999255059</t>
+  </si>
+  <si>
+    <t>MUJCQR</t>
+  </si>
+  <si>
+    <t>59999731872</t>
+  </si>
+  <si>
+    <t>KLLOEQ</t>
+  </si>
+  <si>
+    <t>164.0</t>
+  </si>
+  <si>
+    <t>ICIC86621208135</t>
+  </si>
+  <si>
+    <t>ICIC90061857570</t>
+  </si>
+  <si>
+    <t>6489167618</t>
+  </si>
+  <si>
+    <t>MarloJacob73979@example.net</t>
+  </si>
+  <si>
+    <t>1978-04-23</t>
+  </si>
+  <si>
+    <t>806238199900806</t>
+  </si>
+  <si>
+    <t>2b6edb1769b033de</t>
+  </si>
+  <si>
+    <t>919123650256977</t>
+  </si>
+  <si>
+    <t>IDEP617428748778FIAQ</t>
+  </si>
+  <si>
+    <t>4220209.0</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>59999270321</t>
+  </si>
+  <si>
+    <t>CLHUGI</t>
+  </si>
+  <si>
+    <t>BNPL4176289412152936</t>
+  </si>
+  <si>
+    <t>59999712293</t>
+  </si>
+  <si>
+    <t>LPBPUE</t>
+  </si>
+  <si>
+    <t>59999647131</t>
+  </si>
+  <si>
+    <t>SUUFPU</t>
+  </si>
+  <si>
+    <t>59999299043</t>
+  </si>
+  <si>
+    <t>JACDNG</t>
+  </si>
+  <si>
+    <t>59999108772</t>
+  </si>
+  <si>
+    <t>TTEJPB</t>
+  </si>
+  <si>
+    <t>59999263573</t>
+  </si>
+  <si>
+    <t>PNANCB</t>
+  </si>
+  <si>
+    <t>59999952313</t>
+  </si>
+  <si>
+    <t>ATCBHF</t>
+  </si>
+  <si>
+    <t>59999712877</t>
+  </si>
+  <si>
+    <t>TOFUCE</t>
+  </si>
+  <si>
+    <t>59999984545</t>
+  </si>
+  <si>
+    <t>TTFSFE</t>
+  </si>
+  <si>
+    <t>59999667029</t>
+  </si>
+  <si>
+    <t>QNJIFM</t>
+  </si>
+  <si>
+    <t>166.0</t>
+  </si>
+  <si>
+    <t>ICIC98741496052</t>
+  </si>
+  <si>
+    <t>ICIC92105220707</t>
+  </si>
+  <si>
+    <t>9315841388</t>
+  </si>
+  <si>
+    <t>Payal</t>
+  </si>
+  <si>
+    <t>MahmoodPuri23538@example.net</t>
+  </si>
+  <si>
+    <t>1980-01-01</t>
+  </si>
+  <si>
+    <t>472722284040811</t>
+  </si>
+  <si>
+    <t>1f2a4eac017d9170</t>
+  </si>
+  <si>
+    <t>837405884887910</t>
+  </si>
+  <si>
+    <t>IDEP61749342978871IP</t>
+  </si>
+  <si>
+    <t>4220312.0</t>
+  </si>
+  <si>
+    <t>8535286417</t>
+  </si>
+  <si>
+    <t>Laveena</t>
+  </si>
+  <si>
+    <t>VenkatBadal66008@example.net</t>
+  </si>
+  <si>
+    <t>1973-01-31</t>
+  </si>
+  <si>
+    <t>539240859125983</t>
+  </si>
+  <si>
+    <t>71f6f95cb4b340b6</t>
+  </si>
+  <si>
+    <t>396065306622650</t>
+  </si>
+  <si>
+    <t>IDEP674114218436DMZE</t>
+  </si>
+  <si>
+    <t>4220472.0</t>
+  </si>
+  <si>
+    <t>7570446815</t>
+  </si>
+  <si>
+    <t>Ritika</t>
+  </si>
+  <si>
+    <t>SatishwarDhillon27008@example.net</t>
+  </si>
+  <si>
+    <t>1991-12-11</t>
+  </si>
+  <si>
+    <t>193979471075228</t>
+  </si>
+  <si>
+    <t>62e83bc2488175d0</t>
+  </si>
+  <si>
+    <t>224045856959239</t>
+  </si>
+  <si>
+    <t>IDEP761471464888R5CF</t>
+  </si>
+  <si>
+    <t>4220761.0</t>
+  </si>
+  <si>
+    <t>8539967836</t>
+  </si>
+  <si>
+    <t>ArjunMunshi99002@example.net</t>
+  </si>
+  <si>
+    <t>1981-07-22</t>
+  </si>
+  <si>
+    <t>660734082836805</t>
+  </si>
+  <si>
+    <t>7aed829359fef3f4</t>
+  </si>
+  <si>
+    <t>347302454307283</t>
+  </si>
+  <si>
+    <t>6615001407</t>
+  </si>
+  <si>
+    <t>Lata</t>
+  </si>
+  <si>
+    <t>ArpitGola76453@example.net</t>
+  </si>
+  <si>
+    <t>1970-03-20</t>
+  </si>
+  <si>
+    <t>190427858516912</t>
+  </si>
+  <si>
+    <t>55e57a05c98e1446</t>
+  </si>
+  <si>
+    <t>603062835220501</t>
+  </si>
+  <si>
+    <t>IDEP7461717482719ZRD</t>
+  </si>
+  <si>
+    <t>4220764.0</t>
+  </si>
+  <si>
+    <t>9946480105</t>
+  </si>
+  <si>
+    <t>Aayushi</t>
+  </si>
+  <si>
+    <t>ChandThaman70503@example.net</t>
+  </si>
+  <si>
+    <t>1974-08-19</t>
+  </si>
+  <si>
+    <t>249551376030386</t>
+  </si>
+  <si>
+    <t>4ade9bf86282336d</t>
+  </si>
+  <si>
+    <t>639783060404001</t>
+  </si>
+  <si>
+    <t>IDEP416772849876KGSO</t>
+  </si>
+  <si>
+    <t>4220768.0</t>
+  </si>
+  <si>
+    <t>6402357623</t>
+  </si>
+  <si>
+    <t>SamirSachdeva33206@example.net</t>
+  </si>
+  <si>
+    <t>1990-03-09</t>
+  </si>
+  <si>
+    <t>081577365884021</t>
+  </si>
+  <si>
+    <t>abab9b4640207b3a</t>
+  </si>
+  <si>
+    <t>114841790522254</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>59999308719</t>
+  </si>
+  <si>
+    <t>OATKGR</t>
+  </si>
+  <si>
+    <t>BNPL7164724955722738</t>
+  </si>
+  <si>
+    <t>59999032241</t>
+  </si>
+  <si>
+    <t>GNHATH</t>
+  </si>
+  <si>
+    <t>59999065082</t>
+  </si>
+  <si>
+    <t>LULQEN</t>
+  </si>
+  <si>
+    <t>59999732322</t>
+  </si>
+  <si>
+    <t>BDKTNP</t>
+  </si>
+  <si>
+    <t>59999737050</t>
+  </si>
+  <si>
+    <t>MSIUIJ</t>
+  </si>
+  <si>
+    <t>59999127409</t>
+  </si>
+  <si>
+    <t>AKMUBF</t>
+  </si>
+  <si>
+    <t>59999228588</t>
+  </si>
+  <si>
+    <t>DAMHPS</t>
+  </si>
+  <si>
+    <t>59999187550</t>
+  </si>
+  <si>
+    <t>TAHCLG</t>
+  </si>
+  <si>
+    <t>59999247066</t>
+  </si>
+  <si>
+    <t>GNQNGO</t>
+  </si>
+  <si>
+    <t>59999201194</t>
+  </si>
+  <si>
+    <t>KHFDHF</t>
+  </si>
+  <si>
+    <t>155.0</t>
+  </si>
+  <si>
+    <t>ICIC93508532352</t>
+  </si>
+  <si>
+    <t>ICIC88750723860</t>
+  </si>
+  <si>
+    <t>9955847795</t>
+  </si>
+  <si>
+    <t>Kamini</t>
+  </si>
+  <si>
+    <t>AnandSandal35122@example.net</t>
+  </si>
+  <si>
+    <t>1976-08-31</t>
+  </si>
+  <si>
+    <t>665732212553253</t>
+  </si>
+  <si>
+    <t>2789406aa8ace6b9</t>
+  </si>
+  <si>
+    <t>781609490682187</t>
+  </si>
+  <si>
+    <t>IDEP471674675699EXD6</t>
+  </si>
+  <si>
+    <t>4220805.0</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>59999883010</t>
+  </si>
+  <si>
+    <t>NISUAN</t>
+  </si>
+  <si>
+    <t>BNPL4671748595761873</t>
+  </si>
+  <si>
+    <t>59999898331</t>
+  </si>
+  <si>
+    <t>RMCTLQ</t>
+  </si>
+  <si>
+    <t>59999214843</t>
+  </si>
+  <si>
+    <t>NROTKG</t>
+  </si>
+  <si>
+    <t>59999047468</t>
+  </si>
+  <si>
+    <t>OSGLAJ</t>
+  </si>
+  <si>
+    <t>59999650642</t>
+  </si>
+  <si>
+    <t>TCPTNH</t>
+  </si>
+  <si>
+    <t>59999917607</t>
+  </si>
+  <si>
+    <t>SCAAON</t>
+  </si>
+  <si>
+    <t>59999367101</t>
+  </si>
+  <si>
+    <t>CKFHQR</t>
+  </si>
+  <si>
+    <t>59999258320</t>
+  </si>
+  <si>
+    <t>JQQIJP</t>
+  </si>
+  <si>
+    <t>59999862969</t>
+  </si>
+  <si>
+    <t>MOJAOQ</t>
+  </si>
+  <si>
+    <t>59999205217</t>
+  </si>
+  <si>
+    <t>RCSJPO</t>
+  </si>
+  <si>
+    <t>ICIC87501715655</t>
+  </si>
+  <si>
+    <t>ICIC82299992765</t>
+  </si>
+  <si>
+    <t>8473220264</t>
+  </si>
+  <si>
+    <t>Jiya</t>
+  </si>
+  <si>
+    <t>EkbalDubey35585@example.net</t>
+  </si>
+  <si>
+    <t>1984-02-17</t>
+  </si>
+  <si>
+    <t>520689631679173</t>
+  </si>
+  <si>
+    <t>7adff631b8da81d4</t>
+  </si>
+  <si>
+    <t>210378918456795</t>
+  </si>
+  <si>
+    <t>IDEP641755594466IHFT</t>
+  </si>
+  <si>
+    <t>4221631.0</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>59999434465</t>
+  </si>
+  <si>
+    <t>CEJCDR</t>
+  </si>
+  <si>
+    <t>BNPL4716557937225147</t>
+  </si>
+  <si>
+    <t>59999627487</t>
+  </si>
+  <si>
+    <t>PRAJNG</t>
+  </si>
+  <si>
+    <t>59999120488</t>
+  </si>
+  <si>
+    <t>QFNNUL</t>
+  </si>
+  <si>
+    <t>59999099096</t>
+  </si>
+  <si>
+    <t>QNPAFT</t>
+  </si>
+  <si>
+    <t>59999944313</t>
+  </si>
+  <si>
+    <t>NUSCRA</t>
+  </si>
+  <si>
+    <t>59999560758</t>
+  </si>
+  <si>
+    <t>DDMGKK</t>
+  </si>
+  <si>
+    <t>59999093777</t>
+  </si>
+  <si>
+    <t>EJNRDL</t>
+  </si>
+  <si>
+    <t>59999427676</t>
+  </si>
+  <si>
+    <t>HEKHUQ</t>
+  </si>
+  <si>
+    <t>59999575783</t>
+  </si>
+  <si>
+    <t>KBCHME</t>
+  </si>
+  <si>
+    <t>59999252633</t>
+  </si>
+  <si>
+    <t>RKGLHL</t>
+  </si>
+  <si>
+    <t>127.0</t>
+  </si>
+  <si>
+    <t>ICIC94279641153</t>
+  </si>
+  <si>
+    <t>ICIC80866569350</t>
   </si>
 </sst>
 </file>
@@ -3541,7 +4630,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>970</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3661,22 +4750,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>976</v>
+        <v>1335</v>
       </c>
       <c r="C2" t="s">
-        <v>978</v>
+        <v>884</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>997</v>
+        <v>1357</v>
       </c>
       <c r="F2" t="s">
         <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>998</v>
+        <v>1358</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -4012,7 +5101,9 @@
       <c r="A2" t="s">
         <v>153</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>1340</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
       </c>
@@ -4108,16 +5199,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>974</v>
+        <v>1333</v>
       </c>
       <c r="C2" t="s">
-        <v>975</v>
+        <v>1334</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>973</v>
+        <v>1332</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4232,7 +5323,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>937</v>
+        <v>1360</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -4241,7 +5332,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>175.0</v>
+        <v>133.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -4333,13 +5424,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>543</v>
+        <v>1329</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>971</v>
+        <v>1330</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>972</v>
+        <v>1331</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4688,13 +5779,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>543</v>
+        <v>1329</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>971</v>
+        <v>1330</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>972</v>
+        <v>1331</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -5003,13 +6094,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>543</v>
+        <v>1329</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>971</v>
+        <v>1330</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>972</v>
+        <v>1331</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -5103,13 +6194,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>543</v>
+        <v>1329</v>
       </c>
       <c r="E2" t="s">
-        <v>971</v>
+        <v>1330</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>972</v>
+        <v>1331</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -5418,13 +6509,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>543</v>
+        <v>1329</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>971</v>
+        <v>1330</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>972</v>
+        <v>1331</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -5555,7 +6646,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>938</v>
+        <v>1361</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -5564,7 +6655,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>175.0</v>
+        <v>133.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -5691,10 +6782,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>970</v>
+        <v>1328</v>
       </c>
       <c r="E2" t="s">
-        <v>971</v>
+        <v>1330</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -5706,7 +6797,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>973</v>
+        <v>1332</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -5715,10 +6806,10 @@
         <v>68</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>976</v>
+        <v>1335</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4219742.0</v>
+        <v>4221631.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -5744,7 +6835,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>971</v>
+        <v>1330</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -5756,7 +6847,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>973</v>
+        <v>1332</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -5765,10 +6856,10 @@
         <v>68</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>976</v>
+        <v>1335</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4219742.0</v>
+        <v>4221631.0</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>69</v>
@@ -5828,7 +6919,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>970</v>
+        <v>1328</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5845,7 +6936,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>970</v>
+        <v>1328</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5862,7 +6953,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>970</v>
+        <v>1328</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5879,7 +6970,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>970</v>
+        <v>1328</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5896,7 +6987,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>970</v>
+        <v>1328</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -6065,7 +7156,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>973</v>
+        <v>1332</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -6309,7 +7400,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>973</v>
+        <v>1332</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -6524,7 +7615,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>543</v>
+        <v>1329</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -6607,7 +7698,7 @@
         <v>118</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>976</v>
+        <v>1335</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -6905,7 +7996,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>976</v>
+        <v>1335</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -6925,7 +8016,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>976</v>
+        <v>1335</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -6945,7 +8036,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>976</v>
+        <v>1335</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -6965,7 +8056,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>976</v>
+        <v>1335</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -6985,7 +8076,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>976</v>
+        <v>1335</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -7005,7 +8096,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>976</v>
+        <v>1335</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -7025,7 +8116,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>976</v>
+        <v>1335</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -7084,7 +8175,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>978</v>
+        <v>884</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -7098,7 +8189,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>978</v>
+        <v>884</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="998">
   <si>
     <t>TestCases</t>
   </si>
@@ -2907,6 +2907,138 @@
   </si>
   <si>
     <t>ICIC95837938788</t>
+  </si>
+  <si>
+    <t>7797334046</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>KalyanWable58991@example.net</t>
+  </si>
+  <si>
+    <t>1972-09-25</t>
+  </si>
+  <si>
+    <t>476101066104481</t>
+  </si>
+  <si>
+    <t>f9a255e59a13919f</t>
+  </si>
+  <si>
+    <t>299540031077592</t>
+  </si>
+  <si>
+    <t>IDEP571678138318YD96</t>
+  </si>
+  <si>
+    <t>7990228806</t>
+  </si>
+  <si>
+    <t>Lata</t>
+  </si>
+  <si>
+    <t>AjinkyaAndra54650@example.net</t>
+  </si>
+  <si>
+    <t>1973-03-01</t>
+  </si>
+  <si>
+    <t>361023908039949</t>
+  </si>
+  <si>
+    <t>544978e4e5f79d03</t>
+  </si>
+  <si>
+    <t>705487075465887</t>
+  </si>
+  <si>
+    <t>IDEP765188749392E3NA</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>59999483271</t>
+  </si>
+  <si>
+    <t>OUSLFN</t>
+  </si>
+  <si>
+    <t>BNPL6751889298789364</t>
+  </si>
+  <si>
+    <t>59999607520</t>
+  </si>
+  <si>
+    <t>ESAMGM</t>
+  </si>
+  <si>
+    <t>59999301872</t>
+  </si>
+  <si>
+    <t>LDGJHT</t>
+  </si>
+  <si>
+    <t>59999763472</t>
+  </si>
+  <si>
+    <t>RHREOQ</t>
+  </si>
+  <si>
+    <t>59999541235</t>
+  </si>
+  <si>
+    <t>QAKDUI</t>
+  </si>
+  <si>
+    <t>59999225756</t>
+  </si>
+  <si>
+    <t>MTTSER</t>
+  </si>
+  <si>
+    <t>59999853696</t>
+  </si>
+  <si>
+    <t>IGENII</t>
+  </si>
+  <si>
+    <t>59999196401</t>
+  </si>
+  <si>
+    <t>CCCSRO</t>
+  </si>
+  <si>
+    <t>59999533771</t>
+  </si>
+  <si>
+    <t>HDRJHE</t>
+  </si>
+  <si>
+    <t>59999261709</t>
+  </si>
+  <si>
+    <t>UMTJCL</t>
+  </si>
+  <si>
+    <t>97.0</t>
+  </si>
+  <si>
+    <t>335577017990228806</t>
+  </si>
+  <si>
+    <t>ICIC92469572701</t>
+  </si>
+  <si>
+    <t>ICIC88683210652</t>
   </si>
 </sst>
 </file>
@@ -3405,7 +3537,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>920</v>
+        <v>962</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3525,22 +3657,22 @@
         <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>927</v>
+        <v>969</v>
       </c>
       <c r="C2" t="s">
-        <v>360</v>
+        <v>972</v>
       </c>
       <c r="D2" t="s">
         <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>948</v>
+        <v>992</v>
       </c>
       <c r="F2" t="s">
         <v>276</v>
       </c>
       <c r="G2" t="s">
-        <v>949</v>
+        <v>993</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -3877,7 +4009,7 @@
         <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>931</v>
+        <v>975</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>155</v>
@@ -3974,16 +4106,16 @@
         <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>925</v>
+        <v>967</v>
       </c>
       <c r="C2" t="s">
-        <v>926</v>
+        <v>968</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>924</v>
+        <v>966</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4086,7 +4218,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>951</v>
+        <v>995</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>173</v>
@@ -4098,7 +4230,7 @@
         <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>952</v>
+        <v>996</v>
       </c>
       <c r="H2" s="22">
         <v>44798.630833333336</v>
@@ -4107,7 +4239,7 @@
         <v>175</v>
       </c>
       <c r="J2" t="n">
-        <v>97.0</v>
+        <v>177.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -4554,13 +4686,13 @@
         <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>921</v>
+        <v>963</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>922</v>
+        <v>964</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>923</v>
+        <v>965</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>219</v>
@@ -5339,7 +5471,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>951</v>
+        <v>995</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>173</v>
@@ -5351,7 +5483,7 @@
         <v>181</v>
       </c>
       <c r="G2" t="s">
-        <v>953</v>
+        <v>997</v>
       </c>
       <c r="H2" s="22">
         <v>44798.630833333336</v>
@@ -5360,7 +5492,7 @@
         <v>175</v>
       </c>
       <c r="J2" t="n">
-        <v>97.0</v>
+        <v>177.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -5487,10 +5619,10 @@
         <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>920</v>
+        <v>962</v>
       </c>
       <c r="E2" t="s">
-        <v>922</v>
+        <v>964</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>63</v>
@@ -5502,7 +5634,7 @@
         <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>924</v>
+        <v>966</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>66</v>
@@ -5511,10 +5643,10 @@
         <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>927</v>
+        <v>969</v>
       </c>
       <c r="M2" t="n">
-        <v>4224458.0</v>
+        <v>4224704.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>68</v>
@@ -5574,7 +5706,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>920</v>
+        <v>962</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5591,7 +5723,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>920</v>
+        <v>962</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5608,7 +5740,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>920</v>
+        <v>962</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5625,7 +5757,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>920</v>
+        <v>962</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5642,7 +5774,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>920</v>
+        <v>962</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5811,7 +5943,7 @@
         <v>76</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>924</v>
+        <v>966</v>
       </c>
       <c r="F2" s="15">
         <v>18.939800000000002</v>
@@ -6055,7 +6187,7 @@
         <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>924</v>
+        <v>966</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>66</v>
@@ -6270,7 +6402,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>921</v>
+        <v>963</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>103</v>
@@ -6353,7 +6485,7 @@
         <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>927</v>
+        <v>969</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>109</v>
@@ -6651,7 +6783,7 @@
         <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>927</v>
+        <v>969</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -6671,7 +6803,7 @@
         <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>927</v>
+        <v>969</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -6691,7 +6823,7 @@
         <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>927</v>
+        <v>969</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -6711,7 +6843,7 @@
         <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>927</v>
+        <v>969</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -6731,7 +6863,7 @@
         <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>927</v>
+        <v>969</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -6751,7 +6883,7 @@
         <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>927</v>
+        <v>969</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6771,7 +6903,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>927</v>
+        <v>969</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -6830,7 +6962,7 @@
         <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>360</v>
+        <v>972</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>239</v>
@@ -6844,7 +6976,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>360</v>
+        <v>972</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>239</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="1070">
   <si>
     <t>TestCases</t>
   </si>
@@ -3039,6 +3039,222 @@
   </si>
   <si>
     <t>ICIC88683210652</t>
+  </si>
+  <si>
+    <t>8209537301</t>
+  </si>
+  <si>
+    <t>Komal</t>
+  </si>
+  <si>
+    <t>AbdulMemon75889@example.net</t>
+  </si>
+  <si>
+    <t>1992-10-13</t>
+  </si>
+  <si>
+    <t>502240847861619</t>
+  </si>
+  <si>
+    <t>1deb8d3e9ac240c4</t>
+  </si>
+  <si>
+    <t>778731819447020</t>
+  </si>
+  <si>
+    <t>IDEP571685288187Q9XS</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>59999773567</t>
+  </si>
+  <si>
+    <t>AQGGDD</t>
+  </si>
+  <si>
+    <t>59999582194</t>
+  </si>
+  <si>
+    <t>GMFKBL</t>
+  </si>
+  <si>
+    <t>59999980219</t>
+  </si>
+  <si>
+    <t>CPEBAS</t>
+  </si>
+  <si>
+    <t>59999367623</t>
+  </si>
+  <si>
+    <t>GHSNSQ</t>
+  </si>
+  <si>
+    <t>59999681024</t>
+  </si>
+  <si>
+    <t>FRUBKA</t>
+  </si>
+  <si>
+    <t>59999181737</t>
+  </si>
+  <si>
+    <t>OINKRE</t>
+  </si>
+  <si>
+    <t>59999244590</t>
+  </si>
+  <si>
+    <t>LOPPGO</t>
+  </si>
+  <si>
+    <t>59999900754</t>
+  </si>
+  <si>
+    <t>HENTSK</t>
+  </si>
+  <si>
+    <t>59999895230</t>
+  </si>
+  <si>
+    <t>MEBGFT</t>
+  </si>
+  <si>
+    <t>59999050523</t>
+  </si>
+  <si>
+    <t>GUDITN</t>
+  </si>
+  <si>
+    <t>7784076783</t>
+  </si>
+  <si>
+    <t>Leela</t>
+  </si>
+  <si>
+    <t>AbdulBhasin98101@example.net</t>
+  </si>
+  <si>
+    <t>1992-06-26</t>
+  </si>
+  <si>
+    <t>593784264010614</t>
+  </si>
+  <si>
+    <t>2b01ffdf0c90deb5</t>
+  </si>
+  <si>
+    <t>344291265958793</t>
+  </si>
+  <si>
+    <t>8820595041</t>
+  </si>
+  <si>
+    <t>Usha</t>
+  </si>
+  <si>
+    <t>ArvindSom58384@example.net</t>
+  </si>
+  <si>
+    <t>1978-11-04</t>
+  </si>
+  <si>
+    <t>153634389069981</t>
+  </si>
+  <si>
+    <t>cec16deac8adfb04</t>
+  </si>
+  <si>
+    <t>834646726317789</t>
+  </si>
+  <si>
+    <t>IDEP567186391917RVC6</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>59999024836</t>
+  </si>
+  <si>
+    <t>NLUFOR</t>
+  </si>
+  <si>
+    <t>BNPL5167865757817198</t>
+  </si>
+  <si>
+    <t>59999736589</t>
+  </si>
+  <si>
+    <t>CAATDF</t>
+  </si>
+  <si>
+    <t>59999358694</t>
+  </si>
+  <si>
+    <t>ETUISS</t>
+  </si>
+  <si>
+    <t>59999585413</t>
+  </si>
+  <si>
+    <t>TPBOPM</t>
+  </si>
+  <si>
+    <t>59999371486</t>
+  </si>
+  <si>
+    <t>RESESK</t>
+  </si>
+  <si>
+    <t>59999176306</t>
+  </si>
+  <si>
+    <t>FGDDDP</t>
+  </si>
+  <si>
+    <t>59999885916</t>
+  </si>
+  <si>
+    <t>NHSIHP</t>
+  </si>
+  <si>
+    <t>59999220881</t>
+  </si>
+  <si>
+    <t>OSQCGA</t>
+  </si>
+  <si>
+    <t>59999955926</t>
+  </si>
+  <si>
+    <t>UGIBKU</t>
+  </si>
+  <si>
+    <t>59999505295</t>
+  </si>
+  <si>
+    <t>GRCQDS</t>
+  </si>
+  <si>
+    <t>177.0</t>
+  </si>
+  <si>
+    <t>335577018820595041</t>
+  </si>
+  <si>
+    <t>ICIC90819350545</t>
+  </si>
+  <si>
+    <t>ICIC86067352558</t>
   </si>
 </sst>
 </file>
@@ -3537,7 +3753,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>962</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3657,22 +3873,22 @@
         <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>969</v>
+        <v>1041</v>
       </c>
       <c r="C2" t="s">
-        <v>972</v>
+        <v>746</v>
       </c>
       <c r="D2" t="s">
         <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>992</v>
+        <v>1064</v>
       </c>
       <c r="F2" t="s">
         <v>276</v>
       </c>
       <c r="G2" t="s">
-        <v>993</v>
+        <v>1065</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -4009,7 +4225,7 @@
         <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>975</v>
+        <v>1047</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>155</v>
@@ -4106,16 +4322,16 @@
         <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>967</v>
+        <v>1039</v>
       </c>
       <c r="C2" t="s">
-        <v>968</v>
+        <v>1040</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>966</v>
+        <v>1038</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4218,7 +4434,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>995</v>
+        <v>1067</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>173</v>
@@ -4230,7 +4446,7 @@
         <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>996</v>
+        <v>1068</v>
       </c>
       <c r="H2" s="22">
         <v>44798.630833333336</v>
@@ -4239,7 +4455,7 @@
         <v>175</v>
       </c>
       <c r="J2" t="n">
-        <v>177.0</v>
+        <v>150.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -4686,13 +4902,13 @@
         <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>963</v>
+        <v>1035</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>964</v>
+        <v>1036</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>965</v>
+        <v>1037</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>219</v>
@@ -5471,7 +5687,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>995</v>
+        <v>1067</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>173</v>
@@ -5483,7 +5699,7 @@
         <v>181</v>
       </c>
       <c r="G2" t="s">
-        <v>997</v>
+        <v>1069</v>
       </c>
       <c r="H2" s="22">
         <v>44798.630833333336</v>
@@ -5492,7 +5708,7 @@
         <v>175</v>
       </c>
       <c r="J2" t="n">
-        <v>177.0</v>
+        <v>150.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -5619,10 +5835,10 @@
         <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>962</v>
+        <v>1034</v>
       </c>
       <c r="E2" t="s">
-        <v>964</v>
+        <v>1036</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>63</v>
@@ -5634,7 +5850,7 @@
         <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>966</v>
+        <v>1038</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>66</v>
@@ -5643,10 +5859,10 @@
         <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>969</v>
+        <v>1041</v>
       </c>
       <c r="M2" t="n">
-        <v>4224704.0</v>
+        <v>4224826.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>68</v>
@@ -5706,7 +5922,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>962</v>
+        <v>1034</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5723,7 +5939,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>962</v>
+        <v>1034</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5740,7 +5956,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>962</v>
+        <v>1034</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5757,7 +5973,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>962</v>
+        <v>1034</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5774,7 +5990,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>962</v>
+        <v>1034</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5943,7 +6159,7 @@
         <v>76</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>966</v>
+        <v>1038</v>
       </c>
       <c r="F2" s="15">
         <v>18.939800000000002</v>
@@ -6187,7 +6403,7 @@
         <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>966</v>
+        <v>1038</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>66</v>
@@ -6402,7 +6618,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>963</v>
+        <v>1035</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>103</v>
@@ -6485,7 +6701,7 @@
         <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>969</v>
+        <v>1041</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>109</v>
@@ -6783,7 +6999,7 @@
         <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>969</v>
+        <v>1041</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -6803,7 +7019,7 @@
         <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>969</v>
+        <v>1041</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -6823,7 +7039,7 @@
         <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>969</v>
+        <v>1041</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -6843,7 +7059,7 @@
         <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>969</v>
+        <v>1041</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -6863,7 +7079,7 @@
         <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>969</v>
+        <v>1041</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -6883,7 +7099,7 @@
         <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>969</v>
+        <v>1041</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6903,7 +7119,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>969</v>
+        <v>1041</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -6962,7 +7178,7 @@
         <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>972</v>
+        <v>746</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>239</v>
@@ -6976,7 +7192,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>972</v>
+        <v>746</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>239</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3257" uniqueCount="1101">
   <si>
     <t>TestCases</t>
   </si>
@@ -3255,6 +3255,99 @@
   </si>
   <si>
     <t>ICIC86067352558</t>
+  </si>
+  <si>
+    <t>9193624583</t>
+  </si>
+  <si>
+    <t>Munni</t>
+  </si>
+  <si>
+    <t>OmarBhardwaj95859@example.net</t>
+  </si>
+  <si>
+    <t>1987-01-05</t>
+  </si>
+  <si>
+    <t>141261508967278</t>
+  </si>
+  <si>
+    <t>a3e69b26db332619</t>
+  </si>
+  <si>
+    <t>931913469315046</t>
+  </si>
+  <si>
+    <t>IDEP167598356119LHUO</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>59999729214</t>
+  </si>
+  <si>
+    <t>LRMQTI</t>
+  </si>
+  <si>
+    <t>59999515140</t>
+  </si>
+  <si>
+    <t>RRETTH</t>
+  </si>
+  <si>
+    <t>59999442151</t>
+  </si>
+  <si>
+    <t>MCTALE</t>
+  </si>
+  <si>
+    <t>59999845939</t>
+  </si>
+  <si>
+    <t>FHDKCJ</t>
+  </si>
+  <si>
+    <t>59999050041</t>
+  </si>
+  <si>
+    <t>SQTKGU</t>
+  </si>
+  <si>
+    <t>59999121388</t>
+  </si>
+  <si>
+    <t>JMSFKD</t>
+  </si>
+  <si>
+    <t>59999806373</t>
+  </si>
+  <si>
+    <t>TMCEDD</t>
+  </si>
+  <si>
+    <t>59999501236</t>
+  </si>
+  <si>
+    <t>GTTPSH</t>
+  </si>
+  <si>
+    <t>59999891111</t>
+  </si>
+  <si>
+    <t>TUBEHL</t>
+  </si>
+  <si>
+    <t>59999344928</t>
+  </si>
+  <si>
+    <t>SLRLST</t>
   </si>
 </sst>
 </file>
@@ -3753,7 +3846,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1034</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3873,22 +3966,22 @@
         <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>1041</v>
+        <v>1077</v>
       </c>
       <c r="C2" t="s">
-        <v>746</v>
+        <v>509</v>
       </c>
       <c r="D2" t="s">
         <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>1064</v>
+        <v>1099</v>
       </c>
       <c r="F2" t="s">
         <v>276</v>
       </c>
       <c r="G2" t="s">
-        <v>1065</v>
+        <v>1100</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -4224,9 +4317,7 @@
       <c r="A2" t="s">
         <v>152</v>
       </c>
-      <c r="B2" t="s">
-        <v>1047</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" s="2" t="s">
         <v>155</v>
       </c>
@@ -4322,16 +4413,16 @@
         <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>1039</v>
+        <v>1075</v>
       </c>
       <c r="C2" t="s">
-        <v>1040</v>
+        <v>1076</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>1038</v>
+        <v>1074</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4902,13 +4993,13 @@
         <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>1035</v>
+        <v>1071</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1036</v>
+        <v>1072</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1037</v>
+        <v>1073</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>219</v>
@@ -5835,10 +5926,10 @@
         <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>1034</v>
+        <v>1070</v>
       </c>
       <c r="E2" t="s">
-        <v>1036</v>
+        <v>1072</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>63</v>
@@ -5850,7 +5941,7 @@
         <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1038</v>
+        <v>1074</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>66</v>
@@ -5859,10 +5950,10 @@
         <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>1041</v>
+        <v>1077</v>
       </c>
       <c r="M2" t="n">
-        <v>4224826.0</v>
+        <v>4224880.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>68</v>
@@ -5922,7 +6013,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1034</v>
+        <v>1070</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5939,7 +6030,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1034</v>
+        <v>1070</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5956,7 +6047,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1034</v>
+        <v>1070</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5973,7 +6064,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1034</v>
+        <v>1070</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5990,7 +6081,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1034</v>
+        <v>1070</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -6159,7 +6250,7 @@
         <v>76</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>1038</v>
+        <v>1074</v>
       </c>
       <c r="F2" s="15">
         <v>18.939800000000002</v>
@@ -6403,7 +6494,7 @@
         <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>1038</v>
+        <v>1074</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>66</v>
@@ -6618,7 +6709,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>1035</v>
+        <v>1071</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>103</v>
@@ -6701,7 +6792,7 @@
         <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>1041</v>
+        <v>1077</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>109</v>
@@ -6999,7 +7090,7 @@
         <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>1041</v>
+        <v>1077</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -7019,7 +7110,7 @@
         <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>1041</v>
+        <v>1077</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -7039,7 +7130,7 @@
         <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>1041</v>
+        <v>1077</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -7059,7 +7150,7 @@
         <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>1041</v>
+        <v>1077</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -7079,7 +7170,7 @@
         <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>1041</v>
+        <v>1077</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -7099,7 +7190,7 @@
         <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>1041</v>
+        <v>1077</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -7119,7 +7210,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>1041</v>
+        <v>1077</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -7178,7 +7269,7 @@
         <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>746</v>
+        <v>509</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>239</v>
@@ -7192,7 +7283,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>746</v>
+        <v>509</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>239</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3257" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3342" uniqueCount="1131">
   <si>
     <t>TestCases</t>
   </si>
@@ -3348,6 +3348,96 @@
   </si>
   <si>
     <t>SLRLST</t>
+  </si>
+  <si>
+    <t>9928630029</t>
+  </si>
+  <si>
+    <t>Teena</t>
+  </si>
+  <si>
+    <t>MohanlalArya55801@example.net</t>
+  </si>
+  <si>
+    <t>1975-02-23</t>
+  </si>
+  <si>
+    <t>217635736058266</t>
+  </si>
+  <si>
+    <t>fca9d43483d3e2cd</t>
+  </si>
+  <si>
+    <t>768470255931195</t>
+  </si>
+  <si>
+    <t>IDEP517643479212XTN9</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>59999039879</t>
+  </si>
+  <si>
+    <t>LGKDNI</t>
+  </si>
+  <si>
+    <t>59999301230</t>
+  </si>
+  <si>
+    <t>FKDAUR</t>
+  </si>
+  <si>
+    <t>59999154146</t>
+  </si>
+  <si>
+    <t>ALOQJS</t>
+  </si>
+  <si>
+    <t>59999893446</t>
+  </si>
+  <si>
+    <t>QGSUPC</t>
+  </si>
+  <si>
+    <t>59999629273</t>
+  </si>
+  <si>
+    <t>FBFSMN</t>
+  </si>
+  <si>
+    <t>59999571451</t>
+  </si>
+  <si>
+    <t>SDSQAP</t>
+  </si>
+  <si>
+    <t>59999809407</t>
+  </si>
+  <si>
+    <t>IPITMH</t>
+  </si>
+  <si>
+    <t>59999366166</t>
+  </si>
+  <si>
+    <t>HIJDBM</t>
+  </si>
+  <si>
+    <t>59999457679</t>
+  </si>
+  <si>
+    <t>TEGCCN</t>
+  </si>
+  <si>
+    <t>59999440553</t>
+  </si>
+  <si>
+    <t>FOGLPL</t>
   </si>
 </sst>
 </file>
@@ -3846,7 +3936,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1070</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3966,22 +4056,20 @@
         <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>1077</v>
+        <v>1108</v>
       </c>
       <c r="C2" t="s">
-        <v>509</v>
+        <v>431</v>
       </c>
       <c r="D2" t="s">
         <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F2" t="s">
-        <v>276</v>
-      </c>
+        <v>1129</v>
+      </c>
+      <c r="F2"/>
       <c r="G2" t="s">
-        <v>1100</v>
+        <v>1130</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -4413,16 +4501,16 @@
         <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>1075</v>
+        <v>1106</v>
       </c>
       <c r="C2" t="s">
-        <v>1076</v>
+        <v>1107</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>1074</v>
+        <v>1105</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4993,13 +5081,13 @@
         <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>1071</v>
+        <v>1102</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1072</v>
+        <v>1103</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1073</v>
+        <v>1104</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>219</v>
@@ -5926,10 +6014,10 @@
         <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>1070</v>
+        <v>1101</v>
       </c>
       <c r="E2" t="s">
-        <v>1072</v>
+        <v>1103</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>63</v>
@@ -5941,7 +6029,7 @@
         <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1074</v>
+        <v>1105</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>66</v>
@@ -5950,10 +6038,10 @@
         <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>1077</v>
+        <v>1108</v>
       </c>
       <c r="M2" t="n">
-        <v>4224880.0</v>
+        <v>4225063.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>68</v>
@@ -6013,7 +6101,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1070</v>
+        <v>1101</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -6030,7 +6118,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1070</v>
+        <v>1101</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -6047,7 +6135,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1070</v>
+        <v>1101</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -6064,7 +6152,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1070</v>
+        <v>1101</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -6081,7 +6169,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1070</v>
+        <v>1101</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -6250,7 +6338,7 @@
         <v>76</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>1074</v>
+        <v>1105</v>
       </c>
       <c r="F2" s="15">
         <v>18.939800000000002</v>
@@ -6494,7 +6582,7 @@
         <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>1074</v>
+        <v>1105</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>66</v>
@@ -6709,7 +6797,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>1071</v>
+        <v>1102</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>103</v>
@@ -6792,7 +6880,7 @@
         <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>1077</v>
+        <v>1108</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>109</v>
@@ -7090,7 +7178,7 @@
         <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>1077</v>
+        <v>1108</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -7110,7 +7198,7 @@
         <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>1077</v>
+        <v>1108</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -7130,7 +7218,7 @@
         <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>1077</v>
+        <v>1108</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -7150,7 +7238,7 @@
         <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>1077</v>
+        <v>1108</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -7170,7 +7258,7 @@
         <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>1077</v>
+        <v>1108</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -7190,7 +7278,7 @@
         <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>1077</v>
+        <v>1108</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -7210,7 +7298,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>1077</v>
+        <v>1108</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -7269,7 +7357,7 @@
         <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>509</v>
+        <v>431</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>239</v>
@@ -7283,7 +7371,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>509</v>
+        <v>431</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>239</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3342" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="1206">
   <si>
     <t>TestCases</t>
   </si>
@@ -3438,6 +3438,231 @@
   </si>
   <si>
     <t>FOGLPL</t>
+  </si>
+  <si>
+    <t>7268344834</t>
+  </si>
+  <si>
+    <t>Padama</t>
+  </si>
+  <si>
+    <t>SahilChakraborty85641@example.net</t>
+  </si>
+  <si>
+    <t>1980-05-14</t>
+  </si>
+  <si>
+    <t>510910763558353</t>
+  </si>
+  <si>
+    <t>735ab3c83052e576</t>
+  </si>
+  <si>
+    <t>992525108439601</t>
+  </si>
+  <si>
+    <t>IDEP671546782882IQ2Z</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>59999743822</t>
+  </si>
+  <si>
+    <t>RCOLKG</t>
+  </si>
+  <si>
+    <t>59999435448</t>
+  </si>
+  <si>
+    <t>ONILRG</t>
+  </si>
+  <si>
+    <t>59999164054</t>
+  </si>
+  <si>
+    <t>LLCJLJ</t>
+  </si>
+  <si>
+    <t>59999899043</t>
+  </si>
+  <si>
+    <t>TRNGGT</t>
+  </si>
+  <si>
+    <t>59999633641</t>
+  </si>
+  <si>
+    <t>LENIJM</t>
+  </si>
+  <si>
+    <t>59999334179</t>
+  </si>
+  <si>
+    <t>OHRKEL</t>
+  </si>
+  <si>
+    <t>59999114624</t>
+  </si>
+  <si>
+    <t>GOMLOR</t>
+  </si>
+  <si>
+    <t>59999735671</t>
+  </si>
+  <si>
+    <t>RQBUQG</t>
+  </si>
+  <si>
+    <t>59999480799</t>
+  </si>
+  <si>
+    <t>DDBHHQ</t>
+  </si>
+  <si>
+    <t>59999510206</t>
+  </si>
+  <si>
+    <t>FECLTL</t>
+  </si>
+  <si>
+    <t>8005969194</t>
+  </si>
+  <si>
+    <t>Akanksha</t>
+  </si>
+  <si>
+    <t>TusharSoni28539@example.net</t>
+  </si>
+  <si>
+    <t>1982-09-08</t>
+  </si>
+  <si>
+    <t>993400832654793</t>
+  </si>
+  <si>
+    <t>122b34fda349cefd</t>
+  </si>
+  <si>
+    <t>744161617509725</t>
+  </si>
+  <si>
+    <t>IDEP651747768958TQZ9</t>
+  </si>
+  <si>
+    <t>59999184462</t>
+  </si>
+  <si>
+    <t>FPKBFR</t>
+  </si>
+  <si>
+    <t>BNPL5176479596443261</t>
+  </si>
+  <si>
+    <t>59999877739</t>
+  </si>
+  <si>
+    <t>QQRNAU</t>
+  </si>
+  <si>
+    <t>59999447043</t>
+  </si>
+  <si>
+    <t>NTPJSO</t>
+  </si>
+  <si>
+    <t>59999416365</t>
+  </si>
+  <si>
+    <t>PNOBKL</t>
+  </si>
+  <si>
+    <t>59999153683</t>
+  </si>
+  <si>
+    <t>NSPFGG</t>
+  </si>
+  <si>
+    <t>59999928406</t>
+  </si>
+  <si>
+    <t>QTBLEI</t>
+  </si>
+  <si>
+    <t>59999433596</t>
+  </si>
+  <si>
+    <t>PRTHNT</t>
+  </si>
+  <si>
+    <t>59999671188</t>
+  </si>
+  <si>
+    <t>GRIAAG</t>
+  </si>
+  <si>
+    <t>59999632607</t>
+  </si>
+  <si>
+    <t>TEMKIS</t>
+  </si>
+  <si>
+    <t>59999281321</t>
+  </si>
+  <si>
+    <t>GIFLJC</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>335577018005969194</t>
+  </si>
+  <si>
+    <t>ICIC84650167913</t>
+  </si>
+  <si>
+    <t>ICIC99104346543</t>
+  </si>
+  <si>
+    <t>9521598433</t>
+  </si>
+  <si>
+    <t>ArjunMenon38406@example.net</t>
+  </si>
+  <si>
+    <t>1979-11-19</t>
+  </si>
+  <si>
+    <t>503485382048184</t>
+  </si>
+  <si>
+    <t>9303cda6ea9ee2b9</t>
+  </si>
+  <si>
+    <t>970961565978847</t>
+  </si>
+  <si>
+    <t>7234529825</t>
+  </si>
+  <si>
+    <t>Nishtha</t>
+  </si>
+  <si>
+    <t>FerozBajwa92532@example.net</t>
+  </si>
+  <si>
+    <t>1986-03-25</t>
+  </si>
+  <si>
+    <t>711807176244802</t>
+  </si>
+  <si>
+    <t>0020c6309b6b5401</t>
+  </si>
+  <si>
+    <t>295679662817803</t>
   </si>
 </sst>
 </file>
@@ -3936,7 +4161,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1101</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -4056,20 +4281,22 @@
         <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>1108</v>
+        <v>1167</v>
       </c>
       <c r="C2" t="s">
-        <v>431</v>
+        <v>321</v>
       </c>
       <c r="D2" t="s">
         <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>1129</v>
-      </c>
-      <c r="F2"/>
+        <v>1187</v>
+      </c>
+      <c r="F2" t="s">
+        <v>276</v>
+      </c>
       <c r="G2" t="s">
-        <v>1130</v>
+        <v>1188</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -4405,7 +4632,9 @@
       <c r="A2" t="s">
         <v>152</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>1170</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>155</v>
       </c>
@@ -4501,16 +4730,16 @@
         <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>1106</v>
+        <v>1204</v>
       </c>
       <c r="C2" t="s">
-        <v>1107</v>
+        <v>1205</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>1105</v>
+        <v>1203</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4613,7 +4842,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1067</v>
+        <v>1190</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>173</v>
@@ -4625,7 +4854,7 @@
         <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>1068</v>
+        <v>1191</v>
       </c>
       <c r="H2" s="22">
         <v>44798.630833333336</v>
@@ -4634,7 +4863,7 @@
         <v>175</v>
       </c>
       <c r="J2" t="n">
-        <v>150.0</v>
+        <v>120.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -5081,13 +5310,13 @@
         <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>1102</v>
+        <v>1200</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1103</v>
+        <v>1201</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1104</v>
+        <v>1202</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>219</v>
@@ -5866,7 +6095,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1067</v>
+        <v>1190</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>173</v>
@@ -5878,7 +6107,7 @@
         <v>181</v>
       </c>
       <c r="G2" t="s">
-        <v>1069</v>
+        <v>1192</v>
       </c>
       <c r="H2" s="22">
         <v>44798.630833333336</v>
@@ -5887,7 +6116,7 @@
         <v>175</v>
       </c>
       <c r="J2" t="n">
-        <v>150.0</v>
+        <v>120.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -6014,10 +6243,10 @@
         <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>1101</v>
+        <v>1199</v>
       </c>
       <c r="E2" t="s">
-        <v>1103</v>
+        <v>1201</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>63</v>
@@ -6029,7 +6258,7 @@
         <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1105</v>
+        <v>1203</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>66</v>
@@ -6038,10 +6267,10 @@
         <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>1108</v>
+        <v>1167</v>
       </c>
       <c r="M2" t="n">
-        <v>4225063.0</v>
+        <v>4225158.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>68</v>
@@ -6101,7 +6330,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1101</v>
+        <v>1199</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -6118,7 +6347,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1101</v>
+        <v>1199</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -6135,7 +6364,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1101</v>
+        <v>1199</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -6152,7 +6381,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1101</v>
+        <v>1199</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -6169,7 +6398,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1101</v>
+        <v>1199</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -6338,7 +6567,7 @@
         <v>76</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>1105</v>
+        <v>1203</v>
       </c>
       <c r="F2" s="15">
         <v>18.939800000000002</v>
@@ -6582,7 +6811,7 @@
         <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>1105</v>
+        <v>1203</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>66</v>
@@ -6797,7 +7026,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>1102</v>
+        <v>1200</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>103</v>
@@ -6880,7 +7109,7 @@
         <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>1108</v>
+        <v>1167</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>109</v>
@@ -7178,7 +7407,7 @@
         <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>1108</v>
+        <v>1167</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -7198,7 +7427,7 @@
         <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>1108</v>
+        <v>1167</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -7218,7 +7447,7 @@
         <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>1108</v>
+        <v>1167</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -7238,7 +7467,7 @@
         <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>1108</v>
+        <v>1167</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -7258,7 +7487,7 @@
         <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>1108</v>
+        <v>1167</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -7278,7 +7507,7 @@
         <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>1108</v>
+        <v>1167</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -7298,7 +7527,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>1108</v>
+        <v>1167</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -7357,7 +7586,7 @@
         <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>431</v>
+        <v>321</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>239</v>
@@ -7371,7 +7600,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>431</v>
+        <v>321</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>239</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="1206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="1018">
   <si>
     <t>TestCases</t>
   </si>
@@ -2807,862 +2807,298 @@
     <t>ICIC85578234996</t>
   </si>
   <si>
-    <t>6469101184</t>
-  </si>
-  <si>
-    <t>Gowri</t>
-  </si>
-  <si>
-    <t>AnilBajwa17954@example.net</t>
-  </si>
-  <si>
-    <t>1991-01-14</t>
-  </si>
-  <si>
-    <t>886042333047562</t>
-  </si>
-  <si>
-    <t>4cb0c3744172b6a3</t>
-  </si>
-  <si>
-    <t>859768189387479</t>
-  </si>
-  <si>
-    <t>IDEP5716646588238QST</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>59999245414</t>
-  </si>
-  <si>
-    <t>BOJFMR</t>
-  </si>
-  <si>
-    <t>BNPL1765648388221865</t>
-  </si>
-  <si>
-    <t>59999089265</t>
-  </si>
-  <si>
-    <t>CUNQML</t>
-  </si>
-  <si>
-    <t>59999661732</t>
-  </si>
-  <si>
-    <t>UKEGDI</t>
-  </si>
-  <si>
-    <t>59999324603</t>
-  </si>
-  <si>
-    <t>IKBEBO</t>
-  </si>
-  <si>
-    <t>59999268493</t>
-  </si>
-  <si>
-    <t>EHDBRF</t>
-  </si>
-  <si>
-    <t>59999682703</t>
-  </si>
-  <si>
-    <t>MOOQGA</t>
-  </si>
-  <si>
-    <t>59999801492</t>
-  </si>
-  <si>
-    <t>RCPKNQ</t>
-  </si>
-  <si>
-    <t>59999899638</t>
-  </si>
-  <si>
-    <t>IEEMSF</t>
-  </si>
-  <si>
-    <t>59999929500</t>
-  </si>
-  <si>
-    <t>BBNFHS</t>
-  </si>
-  <si>
-    <t>59999453745</t>
-  </si>
-  <si>
-    <t>BJASNB</t>
+    <t>8645826569</t>
+  </si>
+  <si>
+    <t>Kiran</t>
+  </si>
+  <si>
+    <t>LalitSant84232@example.net</t>
+  </si>
+  <si>
+    <t>1988-06-02</t>
+  </si>
+  <si>
+    <t>298109590694055</t>
+  </si>
+  <si>
+    <t>b0deb5516a822a89</t>
+  </si>
+  <si>
+    <t>392386742739864</t>
+  </si>
+  <si>
+    <t>IDEP167562919355NPLA</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>59999386050</t>
+  </si>
+  <si>
+    <t>DDRQBB</t>
+  </si>
+  <si>
+    <t>59999741663</t>
+  </si>
+  <si>
+    <t>EFLKHG</t>
+  </si>
+  <si>
+    <t>59999990406</t>
+  </si>
+  <si>
+    <t>GRBKJQ</t>
+  </si>
+  <si>
+    <t>59999010114</t>
+  </si>
+  <si>
+    <t>BUTJMD</t>
+  </si>
+  <si>
+    <t>59999387975</t>
+  </si>
+  <si>
+    <t>EERRUC</t>
+  </si>
+  <si>
+    <t>59999247063</t>
+  </si>
+  <si>
+    <t>HFELEC</t>
+  </si>
+  <si>
+    <t>59999562281</t>
+  </si>
+  <si>
+    <t>CQKHBT</t>
+  </si>
+  <si>
+    <t>59999776921</t>
+  </si>
+  <si>
+    <t>FKBHIU</t>
+  </si>
+  <si>
+    <t>59999251345</t>
+  </si>
+  <si>
+    <t>RPIREN</t>
+  </si>
+  <si>
+    <t>59999292426</t>
+  </si>
+  <si>
+    <t>BMEHEM</t>
+  </si>
+  <si>
+    <t>6575562501</t>
+  </si>
+  <si>
+    <t>ChinmayKalla12388@example.net</t>
+  </si>
+  <si>
+    <t>1994-08-04</t>
+  </si>
+  <si>
+    <t>138805628143239</t>
+  </si>
+  <si>
+    <t>70afc8f799aa49b7</t>
+  </si>
+  <si>
+    <t>045527954064332</t>
+  </si>
+  <si>
+    <t>IDEP517663385258ZFC9</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>59999489899</t>
+  </si>
+  <si>
+    <t>MUQSDA</t>
+  </si>
+  <si>
+    <t>BNPL5617635772853426</t>
+  </si>
+  <si>
+    <t>59999850772</t>
+  </si>
+  <si>
+    <t>HNEGSJ</t>
+  </si>
+  <si>
+    <t>59999986965</t>
+  </si>
+  <si>
+    <t>FEODCK</t>
+  </si>
+  <si>
+    <t>59999946218</t>
+  </si>
+  <si>
+    <t>DURPTA</t>
+  </si>
+  <si>
+    <t>59999984695</t>
+  </si>
+  <si>
+    <t>QNRLUE</t>
+  </si>
+  <si>
+    <t>59999460184</t>
+  </si>
+  <si>
+    <t>HJMDAP</t>
+  </si>
+  <si>
+    <t>59999674242</t>
+  </si>
+  <si>
+    <t>MMIMCF</t>
+  </si>
+  <si>
+    <t>59999468918</t>
+  </si>
+  <si>
+    <t>DIRGED</t>
+  </si>
+  <si>
+    <t>59999449736</t>
+  </si>
+  <si>
+    <t>DASPCS</t>
+  </si>
+  <si>
+    <t>59999974814</t>
+  </si>
+  <si>
+    <t>UOFKTI</t>
   </si>
   <si>
     <t>130.0</t>
   </si>
   <si>
-    <t>335577016469101184</t>
-  </si>
-  <si>
-    <t>ICIC91071296595</t>
-  </si>
-  <si>
-    <t>ICIC95837938788</t>
-  </si>
-  <si>
-    <t>7797334046</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>KalyanWable58991@example.net</t>
-  </si>
-  <si>
-    <t>1972-09-25</t>
-  </si>
-  <si>
-    <t>476101066104481</t>
-  </si>
-  <si>
-    <t>f9a255e59a13919f</t>
-  </si>
-  <si>
-    <t>299540031077592</t>
-  </si>
-  <si>
-    <t>IDEP571678138318YD96</t>
-  </si>
-  <si>
-    <t>7990228806</t>
-  </si>
-  <si>
-    <t>Lata</t>
-  </si>
-  <si>
-    <t>AjinkyaAndra54650@example.net</t>
-  </si>
-  <si>
-    <t>1973-03-01</t>
-  </si>
-  <si>
-    <t>361023908039949</t>
-  </si>
-  <si>
-    <t>544978e4e5f79d03</t>
-  </si>
-  <si>
-    <t>705487075465887</t>
-  </si>
-  <si>
-    <t>IDEP765188749392E3NA</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>59999483271</t>
-  </si>
-  <si>
-    <t>OUSLFN</t>
-  </si>
-  <si>
-    <t>BNPL6751889298789364</t>
-  </si>
-  <si>
-    <t>59999607520</t>
-  </si>
-  <si>
-    <t>ESAMGM</t>
-  </si>
-  <si>
-    <t>59999301872</t>
-  </si>
-  <si>
-    <t>LDGJHT</t>
-  </si>
-  <si>
-    <t>59999763472</t>
-  </si>
-  <si>
-    <t>RHREOQ</t>
-  </si>
-  <si>
-    <t>59999541235</t>
-  </si>
-  <si>
-    <t>QAKDUI</t>
-  </si>
-  <si>
-    <t>59999225756</t>
-  </si>
-  <si>
-    <t>MTTSER</t>
-  </si>
-  <si>
-    <t>59999853696</t>
-  </si>
-  <si>
-    <t>IGENII</t>
-  </si>
-  <si>
-    <t>59999196401</t>
-  </si>
-  <si>
-    <t>CCCSRO</t>
-  </si>
-  <si>
-    <t>59999533771</t>
-  </si>
-  <si>
-    <t>HDRJHE</t>
-  </si>
-  <si>
-    <t>59999261709</t>
-  </si>
-  <si>
-    <t>UMTJCL</t>
-  </si>
-  <si>
-    <t>97.0</t>
-  </si>
-  <si>
-    <t>335577017990228806</t>
-  </si>
-  <si>
-    <t>ICIC92469572701</t>
-  </si>
-  <si>
-    <t>ICIC88683210652</t>
-  </si>
-  <si>
-    <t>8209537301</t>
-  </si>
-  <si>
-    <t>Komal</t>
-  </si>
-  <si>
-    <t>AbdulMemon75889@example.net</t>
-  </si>
-  <si>
-    <t>1992-10-13</t>
-  </si>
-  <si>
-    <t>502240847861619</t>
-  </si>
-  <si>
-    <t>1deb8d3e9ac240c4</t>
-  </si>
-  <si>
-    <t>778731819447020</t>
-  </si>
-  <si>
-    <t>IDEP571685288187Q9XS</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>59999773567</t>
-  </si>
-  <si>
-    <t>AQGGDD</t>
-  </si>
-  <si>
-    <t>59999582194</t>
-  </si>
-  <si>
-    <t>GMFKBL</t>
-  </si>
-  <si>
-    <t>59999980219</t>
-  </si>
-  <si>
-    <t>CPEBAS</t>
-  </si>
-  <si>
-    <t>59999367623</t>
-  </si>
-  <si>
-    <t>GHSNSQ</t>
-  </si>
-  <si>
-    <t>59999681024</t>
-  </si>
-  <si>
-    <t>FRUBKA</t>
-  </si>
-  <si>
-    <t>59999181737</t>
-  </si>
-  <si>
-    <t>OINKRE</t>
-  </si>
-  <si>
-    <t>59999244590</t>
-  </si>
-  <si>
-    <t>LOPPGO</t>
-  </si>
-  <si>
-    <t>59999900754</t>
-  </si>
-  <si>
-    <t>HENTSK</t>
-  </si>
-  <si>
-    <t>59999895230</t>
-  </si>
-  <si>
-    <t>MEBGFT</t>
-  </si>
-  <si>
-    <t>59999050523</t>
-  </si>
-  <si>
-    <t>GUDITN</t>
-  </si>
-  <si>
-    <t>7784076783</t>
-  </si>
-  <si>
-    <t>Leela</t>
-  </si>
-  <si>
-    <t>AbdulBhasin98101@example.net</t>
-  </si>
-  <si>
-    <t>1992-06-26</t>
-  </si>
-  <si>
-    <t>593784264010614</t>
-  </si>
-  <si>
-    <t>2b01ffdf0c90deb5</t>
-  </si>
-  <si>
-    <t>344291265958793</t>
-  </si>
-  <si>
-    <t>8820595041</t>
-  </si>
-  <si>
-    <t>Usha</t>
-  </si>
-  <si>
-    <t>ArvindSom58384@example.net</t>
-  </si>
-  <si>
-    <t>1978-11-04</t>
-  </si>
-  <si>
-    <t>153634389069981</t>
-  </si>
-  <si>
-    <t>cec16deac8adfb04</t>
-  </si>
-  <si>
-    <t>834646726317789</t>
-  </si>
-  <si>
-    <t>IDEP567186391917RVC6</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>59999024836</t>
-  </si>
-  <si>
-    <t>NLUFOR</t>
-  </si>
-  <si>
-    <t>BNPL5167865757817198</t>
-  </si>
-  <si>
-    <t>59999736589</t>
-  </si>
-  <si>
-    <t>CAATDF</t>
-  </si>
-  <si>
-    <t>59999358694</t>
-  </si>
-  <si>
-    <t>ETUISS</t>
-  </si>
-  <si>
-    <t>59999585413</t>
-  </si>
-  <si>
-    <t>TPBOPM</t>
-  </si>
-  <si>
-    <t>59999371486</t>
-  </si>
-  <si>
-    <t>RESESK</t>
-  </si>
-  <si>
-    <t>59999176306</t>
-  </si>
-  <si>
-    <t>FGDDDP</t>
-  </si>
-  <si>
-    <t>59999885916</t>
-  </si>
-  <si>
-    <t>NHSIHP</t>
-  </si>
-  <si>
-    <t>59999220881</t>
-  </si>
-  <si>
-    <t>OSQCGA</t>
-  </si>
-  <si>
-    <t>59999955926</t>
-  </si>
-  <si>
-    <t>UGIBKU</t>
-  </si>
-  <si>
-    <t>59999505295</t>
-  </si>
-  <si>
-    <t>GRCQDS</t>
-  </si>
-  <si>
-    <t>177.0</t>
-  </si>
-  <si>
-    <t>335577018820595041</t>
-  </si>
-  <si>
-    <t>ICIC90819350545</t>
-  </si>
-  <si>
-    <t>ICIC86067352558</t>
-  </si>
-  <si>
-    <t>9193624583</t>
-  </si>
-  <si>
-    <t>Munni</t>
-  </si>
-  <si>
-    <t>OmarBhardwaj95859@example.net</t>
-  </si>
-  <si>
-    <t>1987-01-05</t>
-  </si>
-  <si>
-    <t>141261508967278</t>
-  </si>
-  <si>
-    <t>a3e69b26db332619</t>
-  </si>
-  <si>
-    <t>931913469315046</t>
-  </si>
-  <si>
-    <t>IDEP167598356119LHUO</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>59999729214</t>
-  </si>
-  <si>
-    <t>LRMQTI</t>
-  </si>
-  <si>
-    <t>59999515140</t>
-  </si>
-  <si>
-    <t>RRETTH</t>
-  </si>
-  <si>
-    <t>59999442151</t>
-  </si>
-  <si>
-    <t>MCTALE</t>
-  </si>
-  <si>
-    <t>59999845939</t>
-  </si>
-  <si>
-    <t>FHDKCJ</t>
-  </si>
-  <si>
-    <t>59999050041</t>
-  </si>
-  <si>
-    <t>SQTKGU</t>
-  </si>
-  <si>
-    <t>59999121388</t>
-  </si>
-  <si>
-    <t>JMSFKD</t>
-  </si>
-  <si>
-    <t>59999806373</t>
-  </si>
-  <si>
-    <t>TMCEDD</t>
-  </si>
-  <si>
-    <t>59999501236</t>
-  </si>
-  <si>
-    <t>GTTPSH</t>
-  </si>
-  <si>
-    <t>59999891111</t>
-  </si>
-  <si>
-    <t>TUBEHL</t>
-  </si>
-  <si>
-    <t>59999344928</t>
-  </si>
-  <si>
-    <t>SLRLST</t>
-  </si>
-  <si>
-    <t>9928630029</t>
-  </si>
-  <si>
-    <t>Teena</t>
-  </si>
-  <si>
-    <t>MohanlalArya55801@example.net</t>
-  </si>
-  <si>
-    <t>1975-02-23</t>
-  </si>
-  <si>
-    <t>217635736058266</t>
-  </si>
-  <si>
-    <t>fca9d43483d3e2cd</t>
-  </si>
-  <si>
-    <t>768470255931195</t>
-  </si>
-  <si>
-    <t>IDEP517643479212XTN9</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>59999039879</t>
-  </si>
-  <si>
-    <t>LGKDNI</t>
-  </si>
-  <si>
-    <t>59999301230</t>
-  </si>
-  <si>
-    <t>FKDAUR</t>
-  </si>
-  <si>
-    <t>59999154146</t>
-  </si>
-  <si>
-    <t>ALOQJS</t>
-  </si>
-  <si>
-    <t>59999893446</t>
-  </si>
-  <si>
-    <t>QGSUPC</t>
-  </si>
-  <si>
-    <t>59999629273</t>
-  </si>
-  <si>
-    <t>FBFSMN</t>
-  </si>
-  <si>
-    <t>59999571451</t>
-  </si>
-  <si>
-    <t>SDSQAP</t>
-  </si>
-  <si>
-    <t>59999809407</t>
-  </si>
-  <si>
-    <t>IPITMH</t>
-  </si>
-  <si>
-    <t>59999366166</t>
-  </si>
-  <si>
-    <t>HIJDBM</t>
-  </si>
-  <si>
-    <t>59999457679</t>
-  </si>
-  <si>
-    <t>TEGCCN</t>
-  </si>
-  <si>
-    <t>59999440553</t>
-  </si>
-  <si>
-    <t>FOGLPL</t>
-  </si>
-  <si>
-    <t>7268344834</t>
-  </si>
-  <si>
-    <t>Padama</t>
-  </si>
-  <si>
-    <t>SahilChakraborty85641@example.net</t>
-  </si>
-  <si>
-    <t>1980-05-14</t>
-  </si>
-  <si>
-    <t>510910763558353</t>
-  </si>
-  <si>
-    <t>735ab3c83052e576</t>
-  </si>
-  <si>
-    <t>992525108439601</t>
-  </si>
-  <si>
-    <t>IDEP671546782882IQ2Z</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>59999743822</t>
-  </si>
-  <si>
-    <t>RCOLKG</t>
-  </si>
-  <si>
-    <t>59999435448</t>
-  </si>
-  <si>
-    <t>ONILRG</t>
-  </si>
-  <si>
-    <t>59999164054</t>
-  </si>
-  <si>
-    <t>LLCJLJ</t>
-  </si>
-  <si>
-    <t>59999899043</t>
-  </si>
-  <si>
-    <t>TRNGGT</t>
-  </si>
-  <si>
-    <t>59999633641</t>
-  </si>
-  <si>
-    <t>LENIJM</t>
-  </si>
-  <si>
-    <t>59999334179</t>
-  </si>
-  <si>
-    <t>OHRKEL</t>
-  </si>
-  <si>
-    <t>59999114624</t>
-  </si>
-  <si>
-    <t>GOMLOR</t>
-  </si>
-  <si>
-    <t>59999735671</t>
-  </si>
-  <si>
-    <t>RQBUQG</t>
-  </si>
-  <si>
-    <t>59999480799</t>
-  </si>
-  <si>
-    <t>DDBHHQ</t>
-  </si>
-  <si>
-    <t>59999510206</t>
-  </si>
-  <si>
-    <t>FECLTL</t>
-  </si>
-  <si>
-    <t>8005969194</t>
-  </si>
-  <si>
-    <t>Akanksha</t>
-  </si>
-  <si>
-    <t>TusharSoni28539@example.net</t>
-  </si>
-  <si>
-    <t>1982-09-08</t>
-  </si>
-  <si>
-    <t>993400832654793</t>
-  </si>
-  <si>
-    <t>122b34fda349cefd</t>
-  </si>
-  <si>
-    <t>744161617509725</t>
-  </si>
-  <si>
-    <t>IDEP651747768958TQZ9</t>
-  </si>
-  <si>
-    <t>59999184462</t>
-  </si>
-  <si>
-    <t>FPKBFR</t>
-  </si>
-  <si>
-    <t>BNPL5176479596443261</t>
-  </si>
-  <si>
-    <t>59999877739</t>
-  </si>
-  <si>
-    <t>QQRNAU</t>
-  </si>
-  <si>
-    <t>59999447043</t>
-  </si>
-  <si>
-    <t>NTPJSO</t>
-  </si>
-  <si>
-    <t>59999416365</t>
-  </si>
-  <si>
-    <t>PNOBKL</t>
-  </si>
-  <si>
-    <t>59999153683</t>
-  </si>
-  <si>
-    <t>NSPFGG</t>
-  </si>
-  <si>
-    <t>59999928406</t>
-  </si>
-  <si>
-    <t>QTBLEI</t>
-  </si>
-  <si>
-    <t>59999433596</t>
-  </si>
-  <si>
-    <t>PRTHNT</t>
-  </si>
-  <si>
-    <t>59999671188</t>
-  </si>
-  <si>
-    <t>GRIAAG</t>
-  </si>
-  <si>
-    <t>59999632607</t>
-  </si>
-  <si>
-    <t>TEMKIS</t>
-  </si>
-  <si>
-    <t>59999281321</t>
-  </si>
-  <si>
-    <t>GIFLJC</t>
-  </si>
-  <si>
-    <t>150.0</t>
-  </si>
-  <si>
-    <t>335577018005969194</t>
-  </si>
-  <si>
-    <t>ICIC84650167913</t>
-  </si>
-  <si>
-    <t>ICIC99104346543</t>
-  </si>
-  <si>
-    <t>9521598433</t>
-  </si>
-  <si>
-    <t>ArjunMenon38406@example.net</t>
-  </si>
-  <si>
-    <t>1979-11-19</t>
-  </si>
-  <si>
-    <t>503485382048184</t>
-  </si>
-  <si>
-    <t>9303cda6ea9ee2b9</t>
-  </si>
-  <si>
-    <t>970961565978847</t>
-  </si>
-  <si>
-    <t>7234529825</t>
-  </si>
-  <si>
-    <t>Nishtha</t>
-  </si>
-  <si>
-    <t>FerozBajwa92532@example.net</t>
-  </si>
-  <si>
-    <t>1986-03-25</t>
-  </si>
-  <si>
-    <t>711807176244802</t>
-  </si>
-  <si>
-    <t>0020c6309b6b5401</t>
-  </si>
-  <si>
-    <t>295679662817803</t>
+    <t>335577016575562501</t>
+  </si>
+  <si>
+    <t>ICIC98123528618</t>
+  </si>
+  <si>
+    <t>ICIC80726536357</t>
+  </si>
+  <si>
+    <t>9714668835</t>
+  </si>
+  <si>
+    <t>Pinky</t>
+  </si>
+  <si>
+    <t>JagatKhalsa18897@example.net</t>
+  </si>
+  <si>
+    <t>1995-06-01</t>
+  </si>
+  <si>
+    <t>629879081118596</t>
+  </si>
+  <si>
+    <t>44bb69c21ed4fa91</t>
+  </si>
+  <si>
+    <t>287008251989635</t>
+  </si>
+  <si>
+    <t>IDEP615764531836VU41</t>
+  </si>
+  <si>
+    <t>59999862002</t>
+  </si>
+  <si>
+    <t>SKNOTB</t>
+  </si>
+  <si>
+    <t>BNPL7615647147747321</t>
+  </si>
+  <si>
+    <t>59999848141</t>
+  </si>
+  <si>
+    <t>RCADCB</t>
+  </si>
+  <si>
+    <t>59999932202</t>
+  </si>
+  <si>
+    <t>SEETEC</t>
+  </si>
+  <si>
+    <t>59999154108</t>
+  </si>
+  <si>
+    <t>UDJEEE</t>
+  </si>
+  <si>
+    <t>59999716453</t>
+  </si>
+  <si>
+    <t>QJHFPE</t>
+  </si>
+  <si>
+    <t>59999024022</t>
+  </si>
+  <si>
+    <t>TQLTNA</t>
+  </si>
+  <si>
+    <t>59999113357</t>
+  </si>
+  <si>
+    <t>PRBUQD</t>
+  </si>
+  <si>
+    <t>59999262819</t>
+  </si>
+  <si>
+    <t>ENNAMP</t>
+  </si>
+  <si>
+    <t>59999184849</t>
+  </si>
+  <si>
+    <t>JRHSPO</t>
+  </si>
+  <si>
+    <t>59999927400</t>
+  </si>
+  <si>
+    <t>BQIBOI</t>
+  </si>
+  <si>
+    <t>113.0</t>
+  </si>
+  <si>
+    <t>335577019714668835</t>
+  </si>
+  <si>
+    <t>ICIC93893632090</t>
+  </si>
+  <si>
+    <t>ICIC96045892968</t>
   </si>
 </sst>
 </file>
@@ -4161,7 +3597,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1199</v>
+        <v>985</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -4281,22 +3717,22 @@
         <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>1167</v>
+        <v>992</v>
       </c>
       <c r="C2" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="D2" t="s">
         <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>1187</v>
+        <v>1012</v>
       </c>
       <c r="F2" t="s">
         <v>276</v>
       </c>
       <c r="G2" t="s">
-        <v>1188</v>
+        <v>1013</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -4633,7 +4069,7 @@
         <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>1170</v>
+        <v>995</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>155</v>
@@ -4730,16 +4166,16 @@
         <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>1204</v>
+        <v>990</v>
       </c>
       <c r="C2" t="s">
-        <v>1205</v>
+        <v>991</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>1203</v>
+        <v>989</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4842,7 +4278,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1190</v>
+        <v>1015</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>173</v>
@@ -4854,7 +4290,7 @@
         <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>1191</v>
+        <v>1016</v>
       </c>
       <c r="H2" s="22">
         <v>44798.630833333336</v>
@@ -4863,7 +4299,7 @@
         <v>175</v>
       </c>
       <c r="J2" t="n">
-        <v>120.0</v>
+        <v>131.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -5310,13 +4746,13 @@
         <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>1200</v>
+        <v>986</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1201</v>
+        <v>987</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1202</v>
+        <v>988</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>219</v>
@@ -6095,7 +5531,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1190</v>
+        <v>1015</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>173</v>
@@ -6107,7 +5543,7 @@
         <v>181</v>
       </c>
       <c r="G2" t="s">
-        <v>1192</v>
+        <v>1017</v>
       </c>
       <c r="H2" s="22">
         <v>44798.630833333336</v>
@@ -6116,7 +5552,7 @@
         <v>175</v>
       </c>
       <c r="J2" t="n">
-        <v>120.0</v>
+        <v>131.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -6243,10 +5679,10 @@
         <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>1199</v>
+        <v>985</v>
       </c>
       <c r="E2" t="s">
-        <v>1201</v>
+        <v>987</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>63</v>
@@ -6258,7 +5694,7 @@
         <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1203</v>
+        <v>989</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>66</v>
@@ -6267,10 +5703,10 @@
         <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>1167</v>
+        <v>992</v>
       </c>
       <c r="M2" t="n">
-        <v>4225158.0</v>
+        <v>4225425.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>68</v>
@@ -6330,7 +5766,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1199</v>
+        <v>985</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -6347,7 +5783,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1199</v>
+        <v>985</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -6364,7 +5800,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1199</v>
+        <v>985</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -6381,7 +5817,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1199</v>
+        <v>985</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -6398,7 +5834,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1199</v>
+        <v>985</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -6567,7 +6003,7 @@
         <v>76</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>1203</v>
+        <v>989</v>
       </c>
       <c r="F2" s="15">
         <v>18.939800000000002</v>
@@ -6811,7 +6247,7 @@
         <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>1203</v>
+        <v>989</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>66</v>
@@ -7026,7 +6462,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>1200</v>
+        <v>986</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>103</v>
@@ -7109,7 +6545,7 @@
         <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>1167</v>
+        <v>992</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>109</v>
@@ -7407,7 +6843,7 @@
         <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>1167</v>
+        <v>992</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -7427,7 +6863,7 @@
         <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>1167</v>
+        <v>992</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -7447,7 +6883,7 @@
         <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>1167</v>
+        <v>992</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -7467,7 +6903,7 @@
         <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>1167</v>
+        <v>992</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -7487,7 +6923,7 @@
         <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>1167</v>
+        <v>992</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -7507,7 +6943,7 @@
         <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>1167</v>
+        <v>992</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -7527,7 +6963,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>1167</v>
+        <v>992</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -7586,7 +7022,7 @@
         <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>239</v>
@@ -7600,7 +7036,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>239</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3522" uniqueCount="1198">
   <si>
     <t>TestCases</t>
   </si>
@@ -3099,6 +3099,546 @@
   </si>
   <si>
     <t>ICIC96045892968</t>
+  </si>
+  <si>
+    <t>8135003064</t>
+  </si>
+  <si>
+    <t>Sapna</t>
+  </si>
+  <si>
+    <t>GovindKunda71148@example.net</t>
+  </si>
+  <si>
+    <t>1989-08-15</t>
+  </si>
+  <si>
+    <t>287270127474735</t>
+  </si>
+  <si>
+    <t>f4b2a157998aba12</t>
+  </si>
+  <si>
+    <t>814354159897922</t>
+  </si>
+  <si>
+    <t>9234273855</t>
+  </si>
+  <si>
+    <t>AkshaySane74041@example.net</t>
+  </si>
+  <si>
+    <t>1978-08-13</t>
+  </si>
+  <si>
+    <t>385090607404817</t>
+  </si>
+  <si>
+    <t>de47a1686ea3d42f</t>
+  </si>
+  <si>
+    <t>967239496171906</t>
+  </si>
+  <si>
+    <t>8413176585</t>
+  </si>
+  <si>
+    <t>Fatima</t>
+  </si>
+  <si>
+    <t>MukundMukhopadhyay59990@example.net</t>
+  </si>
+  <si>
+    <t>1970-02-08</t>
+  </si>
+  <si>
+    <t>190658664197105</t>
+  </si>
+  <si>
+    <t>6170e35b88efa783</t>
+  </si>
+  <si>
+    <t>254511720398972</t>
+  </si>
+  <si>
+    <t>6898636360</t>
+  </si>
+  <si>
+    <t>Payal</t>
+  </si>
+  <si>
+    <t>SamirMutti67701@example.net</t>
+  </si>
+  <si>
+    <t>1994-04-24</t>
+  </si>
+  <si>
+    <t>081959135193976</t>
+  </si>
+  <si>
+    <t>8bcee238cbd83cbb</t>
+  </si>
+  <si>
+    <t>288515353423221</t>
+  </si>
+  <si>
+    <t>IDEP756153168364EGKN</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>59999643883</t>
+  </si>
+  <si>
+    <t>RGTKUL</t>
+  </si>
+  <si>
+    <t>59999676389</t>
+  </si>
+  <si>
+    <t>QURNFS</t>
+  </si>
+  <si>
+    <t>59999973552</t>
+  </si>
+  <si>
+    <t>IKUFQS</t>
+  </si>
+  <si>
+    <t>59999189467</t>
+  </si>
+  <si>
+    <t>MNCMHB</t>
+  </si>
+  <si>
+    <t>59999768567</t>
+  </si>
+  <si>
+    <t>ETDGNQ</t>
+  </si>
+  <si>
+    <t>59999606642</t>
+  </si>
+  <si>
+    <t>CQRING</t>
+  </si>
+  <si>
+    <t>59999183776</t>
+  </si>
+  <si>
+    <t>TFHKBC</t>
+  </si>
+  <si>
+    <t>59999500378</t>
+  </si>
+  <si>
+    <t>HUJMQU</t>
+  </si>
+  <si>
+    <t>59999491098</t>
+  </si>
+  <si>
+    <t>OFTHLE</t>
+  </si>
+  <si>
+    <t>59999752126</t>
+  </si>
+  <si>
+    <t>BGALAE</t>
+  </si>
+  <si>
+    <t>8089976466</t>
+  </si>
+  <si>
+    <t>Sameedha</t>
+  </si>
+  <si>
+    <t>JagdishSarna62471@example.net</t>
+  </si>
+  <si>
+    <t>1984-11-26</t>
+  </si>
+  <si>
+    <t>836542991759839</t>
+  </si>
+  <si>
+    <t>aee13f72cb86d63a</t>
+  </si>
+  <si>
+    <t>419972993542419</t>
+  </si>
+  <si>
+    <t>IDEP165753918976X8UA</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>59999550934</t>
+  </si>
+  <si>
+    <t>UOJTAD</t>
+  </si>
+  <si>
+    <t>BNPL1576541918872853</t>
+  </si>
+  <si>
+    <t>59999141257</t>
+  </si>
+  <si>
+    <t>PUCLTK</t>
+  </si>
+  <si>
+    <t>59999309803</t>
+  </si>
+  <si>
+    <t>AQMUFH</t>
+  </si>
+  <si>
+    <t>59999396508</t>
+  </si>
+  <si>
+    <t>QTGUCO</t>
+  </si>
+  <si>
+    <t>59999494274</t>
+  </si>
+  <si>
+    <t>UMHUMI</t>
+  </si>
+  <si>
+    <t>59999708926</t>
+  </si>
+  <si>
+    <t>ARBQKL</t>
+  </si>
+  <si>
+    <t>59999202813</t>
+  </si>
+  <si>
+    <t>RKGCTL</t>
+  </si>
+  <si>
+    <t>59999399392</t>
+  </si>
+  <si>
+    <t>HCPTIE</t>
+  </si>
+  <si>
+    <t>59999612413</t>
+  </si>
+  <si>
+    <t>IPRKTN</t>
+  </si>
+  <si>
+    <t>59999587296</t>
+  </si>
+  <si>
+    <t>QTSINM</t>
+  </si>
+  <si>
+    <t>131.0</t>
+  </si>
+  <si>
+    <t>335577018089976466</t>
+  </si>
+  <si>
+    <t>ICIC80253082770</t>
+  </si>
+  <si>
+    <t>ICIC84944197614</t>
+  </si>
+  <si>
+    <t>7730390692</t>
+  </si>
+  <si>
+    <t>FerozPatel67536@example.net</t>
+  </si>
+  <si>
+    <t>1977-11-20</t>
+  </si>
+  <si>
+    <t>262764353401577</t>
+  </si>
+  <si>
+    <t>472840517f9f7155</t>
+  </si>
+  <si>
+    <t>775174720923198</t>
+  </si>
+  <si>
+    <t>IDEP175616788569FO1M</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>59999024370</t>
+  </si>
+  <si>
+    <t>UBFNQK</t>
+  </si>
+  <si>
+    <t>BNPL1675169746457981</t>
+  </si>
+  <si>
+    <t>59999668936</t>
+  </si>
+  <si>
+    <t>CQSJKM</t>
+  </si>
+  <si>
+    <t>59999020441</t>
+  </si>
+  <si>
+    <t>NFMTMG</t>
+  </si>
+  <si>
+    <t>59999502788</t>
+  </si>
+  <si>
+    <t>RKEGHM</t>
+  </si>
+  <si>
+    <t>59999197101</t>
+  </si>
+  <si>
+    <t>KBROSO</t>
+  </si>
+  <si>
+    <t>59999580025</t>
+  </si>
+  <si>
+    <t>IJUPPQ</t>
+  </si>
+  <si>
+    <t>59999579817</t>
+  </si>
+  <si>
+    <t>TGLFAM</t>
+  </si>
+  <si>
+    <t>59999062843</t>
+  </si>
+  <si>
+    <t>IOCIJO</t>
+  </si>
+  <si>
+    <t>59999501497</t>
+  </si>
+  <si>
+    <t>RKLCET</t>
+  </si>
+  <si>
+    <t>59999731638</t>
+  </si>
+  <si>
+    <t>UJMQOP</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>335577017730390692</t>
+  </si>
+  <si>
+    <t>ICIC81400825028</t>
+  </si>
+  <si>
+    <t>ICIC98836479155</t>
+  </si>
+  <si>
+    <t>9221221433</t>
+  </si>
+  <si>
+    <t>Chhaya</t>
+  </si>
+  <si>
+    <t>MiteshSandal36378@example.net</t>
+  </si>
+  <si>
+    <t>1992-05-12</t>
+  </si>
+  <si>
+    <t>374162611887361</t>
+  </si>
+  <si>
+    <t>f560625253d344d8</t>
+  </si>
+  <si>
+    <t>785015693448697</t>
+  </si>
+  <si>
+    <t>IDEP516718341899X8OF</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>59999602369</t>
+  </si>
+  <si>
+    <t>CBMCDK</t>
+  </si>
+  <si>
+    <t>BNPL1675185446894896</t>
+  </si>
+  <si>
+    <t>59999540404</t>
+  </si>
+  <si>
+    <t>MQJRSC</t>
+  </si>
+  <si>
+    <t>59999222286</t>
+  </si>
+  <si>
+    <t>TEJFHG</t>
+  </si>
+  <si>
+    <t>59999000399</t>
+  </si>
+  <si>
+    <t>QSLIJP</t>
+  </si>
+  <si>
+    <t>59999096008</t>
+  </si>
+  <si>
+    <t>LCTDFO</t>
+  </si>
+  <si>
+    <t>59999842801</t>
+  </si>
+  <si>
+    <t>CARCPB</t>
+  </si>
+  <si>
+    <t>59999198545</t>
+  </si>
+  <si>
+    <t>GLHOFH</t>
+  </si>
+  <si>
+    <t>59999946919</t>
+  </si>
+  <si>
+    <t>MQERFG</t>
+  </si>
+  <si>
+    <t>59999405501</t>
+  </si>
+  <si>
+    <t>CSOQNR</t>
+  </si>
+  <si>
+    <t>59999244890</t>
+  </si>
+  <si>
+    <t>IASNBA</t>
+  </si>
+  <si>
+    <t>335577019221221433</t>
+  </si>
+  <si>
+    <t>ICIC80409454868</t>
+  </si>
+  <si>
+    <t>ICIC99167606532</t>
+  </si>
+  <si>
+    <t>9073136129</t>
+  </si>
+  <si>
+    <t>Tanuja</t>
+  </si>
+  <si>
+    <t>AjayGrover13332@example.net</t>
+  </si>
+  <si>
+    <t>1978-05-28</t>
+  </si>
+  <si>
+    <t>862127532303631</t>
+  </si>
+  <si>
+    <t>0ab4a8d61f275e29</t>
+  </si>
+  <si>
+    <t>749897049630580</t>
+  </si>
+  <si>
+    <t>IDEP165719291516TB3C</t>
+  </si>
+  <si>
+    <t>59999020493</t>
+  </si>
+  <si>
+    <t>AKJOCR</t>
+  </si>
+  <si>
+    <t>59999367307</t>
+  </si>
+  <si>
+    <t>CPISSK</t>
+  </si>
+  <si>
+    <t>59999851536</t>
+  </si>
+  <si>
+    <t>ELFILA</t>
+  </si>
+  <si>
+    <t>59999926780</t>
+  </si>
+  <si>
+    <t>AKGLGK</t>
+  </si>
+  <si>
+    <t>59999833045</t>
+  </si>
+  <si>
+    <t>ABRFGI</t>
+  </si>
+  <si>
+    <t>59999490811</t>
+  </si>
+  <si>
+    <t>FDUAIN</t>
+  </si>
+  <si>
+    <t>59999363753</t>
+  </si>
+  <si>
+    <t>MUOALA</t>
+  </si>
+  <si>
+    <t>59999333523</t>
+  </si>
+  <si>
+    <t>AITIDR</t>
+  </si>
+  <si>
+    <t>59999147381</t>
+  </si>
+  <si>
+    <t>AKDOGM</t>
+  </si>
+  <si>
+    <t>59999460196</t>
+  </si>
+  <si>
+    <t>MLSKMI</t>
   </si>
 </sst>
 </file>
@@ -3597,7 +4137,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>985</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3717,22 +4257,20 @@
         <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>992</v>
+        <v>1177</v>
       </c>
       <c r="C2" t="s">
-        <v>281</v>
+        <v>604</v>
       </c>
       <c r="D2" t="s">
         <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F2" t="s">
-        <v>276</v>
-      </c>
+        <v>1196</v>
+      </c>
+      <c r="F2"/>
       <c r="G2" t="s">
-        <v>1013</v>
+        <v>1197</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -4068,9 +4606,7 @@
       <c r="A2" t="s">
         <v>152</v>
       </c>
-      <c r="B2" t="s">
-        <v>995</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" s="2" t="s">
         <v>155</v>
       </c>
@@ -4166,16 +4702,16 @@
         <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>990</v>
+        <v>1175</v>
       </c>
       <c r="C2" t="s">
-        <v>991</v>
+        <v>1176</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>989</v>
+        <v>1174</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4278,7 +4814,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1015</v>
+        <v>1167</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>173</v>
@@ -4290,7 +4826,7 @@
         <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>1016</v>
+        <v>1168</v>
       </c>
       <c r="H2" s="22">
         <v>44798.630833333336</v>
@@ -4299,7 +4835,7 @@
         <v>175</v>
       </c>
       <c r="J2" t="n">
-        <v>131.0</v>
+        <v>128.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -4746,13 +5282,13 @@
         <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>986</v>
+        <v>1171</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>987</v>
+        <v>1172</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>988</v>
+        <v>1173</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>219</v>
@@ -5531,7 +6067,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1015</v>
+        <v>1167</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>173</v>
@@ -5543,7 +6079,7 @@
         <v>181</v>
       </c>
       <c r="G2" t="s">
-        <v>1017</v>
+        <v>1169</v>
       </c>
       <c r="H2" s="22">
         <v>44798.630833333336</v>
@@ -5552,7 +6088,7 @@
         <v>175</v>
       </c>
       <c r="J2" t="n">
-        <v>131.0</v>
+        <v>128.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -5679,10 +6215,10 @@
         <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>985</v>
+        <v>1170</v>
       </c>
       <c r="E2" t="s">
-        <v>987</v>
+        <v>1172</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>63</v>
@@ -5694,7 +6230,7 @@
         <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>989</v>
+        <v>1174</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>66</v>
@@ -5703,10 +6239,10 @@
         <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>992</v>
+        <v>1177</v>
       </c>
       <c r="M2" t="n">
-        <v>4225425.0</v>
+        <v>4233261.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>68</v>
@@ -5766,7 +6302,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>985</v>
+        <v>1170</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5783,7 +6319,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>985</v>
+        <v>1170</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5800,7 +6336,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>985</v>
+        <v>1170</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5817,7 +6353,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>985</v>
+        <v>1170</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5834,7 +6370,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>985</v>
+        <v>1170</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -6003,7 +6539,7 @@
         <v>76</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>989</v>
+        <v>1174</v>
       </c>
       <c r="F2" s="15">
         <v>18.939800000000002</v>
@@ -6247,7 +6783,7 @@
         <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>989</v>
+        <v>1174</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>66</v>
@@ -6462,7 +6998,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>986</v>
+        <v>1171</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>103</v>
@@ -6545,7 +7081,7 @@
         <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>992</v>
+        <v>1177</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>109</v>
@@ -6843,7 +7379,7 @@
         <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>992</v>
+        <v>1177</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -6863,7 +7399,7 @@
         <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>992</v>
+        <v>1177</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -6883,7 +7419,7 @@
         <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>992</v>
+        <v>1177</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -6903,7 +7439,7 @@
         <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>992</v>
+        <v>1177</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -6923,7 +7459,7 @@
         <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>992</v>
+        <v>1177</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -6943,7 +7479,7 @@
         <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>992</v>
+        <v>1177</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6963,7 +7499,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>992</v>
+        <v>1177</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -7022,7 +7558,7 @@
         <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>281</v>
+        <v>604</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>239</v>
@@ -7036,7 +7572,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>281</v>
+        <v>604</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>239</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3522" uniqueCount="1198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4682" uniqueCount="1607">
   <si>
     <t>TestCases</t>
   </si>
@@ -3639,6 +3639,1233 @@
   </si>
   <si>
     <t>MLSKMI</t>
+  </si>
+  <si>
+    <t>9217832629</t>
+  </si>
+  <si>
+    <t>Kirti</t>
+  </si>
+  <si>
+    <t>RajMeda38106@example.net</t>
+  </si>
+  <si>
+    <t>1989-07-10</t>
+  </si>
+  <si>
+    <t>757425415869993</t>
+  </si>
+  <si>
+    <t>ae67bed862824d10</t>
+  </si>
+  <si>
+    <t>089650718831205</t>
+  </si>
+  <si>
+    <t>8799588640</t>
+  </si>
+  <si>
+    <t>Pooja</t>
+  </si>
+  <si>
+    <t>KalpitMehan46704@example.net</t>
+  </si>
+  <si>
+    <t>1978-09-22</t>
+  </si>
+  <si>
+    <t>211185223261888</t>
+  </si>
+  <si>
+    <t>107fd3d4998314a9</t>
+  </si>
+  <si>
+    <t>586617038223601</t>
+  </si>
+  <si>
+    <t>IDEP1675843928683LI7</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>59999472582</t>
+  </si>
+  <si>
+    <t>SRLULP</t>
+  </si>
+  <si>
+    <t>59999399881</t>
+  </si>
+  <si>
+    <t>JOCEIQ</t>
+  </si>
+  <si>
+    <t>59999522299</t>
+  </si>
+  <si>
+    <t>HGUFLF</t>
+  </si>
+  <si>
+    <t>59999473704</t>
+  </si>
+  <si>
+    <t>HLDAUF</t>
+  </si>
+  <si>
+    <t>59999173486</t>
+  </si>
+  <si>
+    <t>FBOHIL</t>
+  </si>
+  <si>
+    <t>59999183987</t>
+  </si>
+  <si>
+    <t>UKMOFC</t>
+  </si>
+  <si>
+    <t>59999365448</t>
+  </si>
+  <si>
+    <t>QNREJP</t>
+  </si>
+  <si>
+    <t>59999667385</t>
+  </si>
+  <si>
+    <t>ERNOMF</t>
+  </si>
+  <si>
+    <t>59999563028</t>
+  </si>
+  <si>
+    <t>MQFCCK</t>
+  </si>
+  <si>
+    <t>59999868394</t>
+  </si>
+  <si>
+    <t>KPATTQ</t>
+  </si>
+  <si>
+    <t>9783543281</t>
+  </si>
+  <si>
+    <t>Parminder</t>
+  </si>
+  <si>
+    <t>SatishMaraj22703@example.net</t>
+  </si>
+  <si>
+    <t>1976-12-15</t>
+  </si>
+  <si>
+    <t>692218664694768</t>
+  </si>
+  <si>
+    <t>59e55bdf61e72469</t>
+  </si>
+  <si>
+    <t>377162503179171</t>
+  </si>
+  <si>
+    <t>IDEP5617857882821SEB</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>59999916768</t>
+  </si>
+  <si>
+    <t>SUGDIT</t>
+  </si>
+  <si>
+    <t>BNPL7561859757815981</t>
+  </si>
+  <si>
+    <t>59999121584</t>
+  </si>
+  <si>
+    <t>URLFUH</t>
+  </si>
+  <si>
+    <t>59999644488</t>
+  </si>
+  <si>
+    <t>BJUCML</t>
+  </si>
+  <si>
+    <t>59999576892</t>
+  </si>
+  <si>
+    <t>IIFGSP</t>
+  </si>
+  <si>
+    <t>59999464270</t>
+  </si>
+  <si>
+    <t>QGMGSF</t>
+  </si>
+  <si>
+    <t>59999690809</t>
+  </si>
+  <si>
+    <t>CSKTJL</t>
+  </si>
+  <si>
+    <t>59999776813</t>
+  </si>
+  <si>
+    <t>IKOQID</t>
+  </si>
+  <si>
+    <t>59999578263</t>
+  </si>
+  <si>
+    <t>RFETDM</t>
+  </si>
+  <si>
+    <t>59999113371</t>
+  </si>
+  <si>
+    <t>NKSQAR</t>
+  </si>
+  <si>
+    <t>59999138773</t>
+  </si>
+  <si>
+    <t>DCTQRA</t>
+  </si>
+  <si>
+    <t>128.0</t>
+  </si>
+  <si>
+    <t>335577019783543281</t>
+  </si>
+  <si>
+    <t>ICIC82282959057</t>
+  </si>
+  <si>
+    <t>ICIC99375899146</t>
+  </si>
+  <si>
+    <t>7138959380</t>
+  </si>
+  <si>
+    <t>Preshita</t>
+  </si>
+  <si>
+    <t>AtulHalder68407@example.net</t>
+  </si>
+  <si>
+    <t>1980-11-19</t>
+  </si>
+  <si>
+    <t>366172548940639</t>
+  </si>
+  <si>
+    <t>0d91afbb8d6ca74e</t>
+  </si>
+  <si>
+    <t>383818683243028</t>
+  </si>
+  <si>
+    <t>IDEP571687355891KNUG</t>
+  </si>
+  <si>
+    <t>59999048092</t>
+  </si>
+  <si>
+    <t>QLEHBP</t>
+  </si>
+  <si>
+    <t>BNPL5617875418152196</t>
+  </si>
+  <si>
+    <t>59999564055</t>
+  </si>
+  <si>
+    <t>ETOMDL</t>
+  </si>
+  <si>
+    <t>59999383399</t>
+  </si>
+  <si>
+    <t>NCDGOA</t>
+  </si>
+  <si>
+    <t>59999417295</t>
+  </si>
+  <si>
+    <t>DUFTGA</t>
+  </si>
+  <si>
+    <t>59999470742</t>
+  </si>
+  <si>
+    <t>NMPUBJ</t>
+  </si>
+  <si>
+    <t>59999526211</t>
+  </si>
+  <si>
+    <t>NHGHOC</t>
+  </si>
+  <si>
+    <t>59999066933</t>
+  </si>
+  <si>
+    <t>QJMHOR</t>
+  </si>
+  <si>
+    <t>59999222372</t>
+  </si>
+  <si>
+    <t>LIPBGK</t>
+  </si>
+  <si>
+    <t>59999076977</t>
+  </si>
+  <si>
+    <t>TGAHNJ</t>
+  </si>
+  <si>
+    <t>59999069099</t>
+  </si>
+  <si>
+    <t>IDQUKI</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>335577017138959380</t>
+  </si>
+  <si>
+    <t>ICIC87074539506</t>
+  </si>
+  <si>
+    <t>ICIC90512872757</t>
+  </si>
+  <si>
+    <t>6620761709</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+  <si>
+    <t>EhsaanJhaveri92416@example.net</t>
+  </si>
+  <si>
+    <t>1982-07-05</t>
+  </si>
+  <si>
+    <t>967243224443363</t>
+  </si>
+  <si>
+    <t>f89b7b4f1a02e1c1</t>
+  </si>
+  <si>
+    <t>172045846933833</t>
+  </si>
+  <si>
+    <t>IDEP567188459883ON12</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>59999294813</t>
+  </si>
+  <si>
+    <t>BBFPPJ</t>
+  </si>
+  <si>
+    <t>BNPL6157886584889615</t>
+  </si>
+  <si>
+    <t>59999393034</t>
+  </si>
+  <si>
+    <t>CUTAMN</t>
+  </si>
+  <si>
+    <t>59999172312</t>
+  </si>
+  <si>
+    <t>BDLICC</t>
+  </si>
+  <si>
+    <t>59999293104</t>
+  </si>
+  <si>
+    <t>RGRIGP</t>
+  </si>
+  <si>
+    <t>59999865189</t>
+  </si>
+  <si>
+    <t>NLCLFH</t>
+  </si>
+  <si>
+    <t>59999849665</t>
+  </si>
+  <si>
+    <t>KDEFUU</t>
+  </si>
+  <si>
+    <t>59999528258</t>
+  </si>
+  <si>
+    <t>NAJBJQ</t>
+  </si>
+  <si>
+    <t>59999229189</t>
+  </si>
+  <si>
+    <t>RHLJLO</t>
+  </si>
+  <si>
+    <t>59999729029</t>
+  </si>
+  <si>
+    <t>EMAFOQ</t>
+  </si>
+  <si>
+    <t>59999000332</t>
+  </si>
+  <si>
+    <t>GPOHNN</t>
+  </si>
+  <si>
+    <t>335577016620761709</t>
+  </si>
+  <si>
+    <t>ICIC91530739902</t>
+  </si>
+  <si>
+    <t>ICIC96022865268</t>
+  </si>
+  <si>
+    <t>9225918521</t>
+  </si>
+  <si>
+    <t>Aabha</t>
+  </si>
+  <si>
+    <t>ChandJohal41198@example.net</t>
+  </si>
+  <si>
+    <t>1994-02-04</t>
+  </si>
+  <si>
+    <t>205831502559447</t>
+  </si>
+  <si>
+    <t>a89b2ede86088ed1</t>
+  </si>
+  <si>
+    <t>268903863707271</t>
+  </si>
+  <si>
+    <t>IDEP671589782833I93B</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>59999885810</t>
+  </si>
+  <si>
+    <t>CTEUDN</t>
+  </si>
+  <si>
+    <t>BNPL1576899725723495</t>
+  </si>
+  <si>
+    <t>59999898557</t>
+  </si>
+  <si>
+    <t>CTRAFG</t>
+  </si>
+  <si>
+    <t>59999017151</t>
+  </si>
+  <si>
+    <t>GRGRPI</t>
+  </si>
+  <si>
+    <t>59999031133</t>
+  </si>
+  <si>
+    <t>CJOLBP</t>
+  </si>
+  <si>
+    <t>59999853132</t>
+  </si>
+  <si>
+    <t>MKUOCL</t>
+  </si>
+  <si>
+    <t>59999460945</t>
+  </si>
+  <si>
+    <t>GHESPS</t>
+  </si>
+  <si>
+    <t>59999487415</t>
+  </si>
+  <si>
+    <t>BGQUIQ</t>
+  </si>
+  <si>
+    <t>59999673723</t>
+  </si>
+  <si>
+    <t>MJPOHK</t>
+  </si>
+  <si>
+    <t>59999463410</t>
+  </si>
+  <si>
+    <t>UATEHC</t>
+  </si>
+  <si>
+    <t>59999819198</t>
+  </si>
+  <si>
+    <t>NUBNGB</t>
+  </si>
+  <si>
+    <t>168.0</t>
+  </si>
+  <si>
+    <t>335577019225918521</t>
+  </si>
+  <si>
+    <t>ICIC92928313829</t>
+  </si>
+  <si>
+    <t>ICIC83310289758</t>
+  </si>
+  <si>
+    <t>9590469818</t>
+  </si>
+  <si>
+    <t>AbbasPal96447@example.net</t>
+  </si>
+  <si>
+    <t>1981-06-14</t>
+  </si>
+  <si>
+    <t>705006298569729</t>
+  </si>
+  <si>
+    <t>99d8de5ed296122b</t>
+  </si>
+  <si>
+    <t>576962971274217</t>
+  </si>
+  <si>
+    <t>IDEP165716767881A1YS</t>
+  </si>
+  <si>
+    <t>6509628910</t>
+  </si>
+  <si>
+    <t>Nupoor</t>
+  </si>
+  <si>
+    <t>SahilAmin91815@example.net</t>
+  </si>
+  <si>
+    <t>1989-12-19</t>
+  </si>
+  <si>
+    <t>402952977259304</t>
+  </si>
+  <si>
+    <t>e120b996ba2913a3</t>
+  </si>
+  <si>
+    <t>604496373177856</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>bnpl59999303158</t>
+  </si>
+  <si>
+    <t>GPHASK</t>
+  </si>
+  <si>
+    <t>bnpl59999737452</t>
+  </si>
+  <si>
+    <t>KNURCT</t>
+  </si>
+  <si>
+    <t>bnpl59999532830</t>
+  </si>
+  <si>
+    <t>LBBICR</t>
+  </si>
+  <si>
+    <t>bnpl59999939480</t>
+  </si>
+  <si>
+    <t>PFNCMK</t>
+  </si>
+  <si>
+    <t>bnpl59999844752</t>
+  </si>
+  <si>
+    <t>KUGSBT</t>
+  </si>
+  <si>
+    <t>bnpl59999460913</t>
+  </si>
+  <si>
+    <t>PPMECL</t>
+  </si>
+  <si>
+    <t>bnpl59999739281</t>
+  </si>
+  <si>
+    <t>URBPAU</t>
+  </si>
+  <si>
+    <t>bnpl59999678806</t>
+  </si>
+  <si>
+    <t>URGFPN</t>
+  </si>
+  <si>
+    <t>bnpl59999065541</t>
+  </si>
+  <si>
+    <t>ADDGCK</t>
+  </si>
+  <si>
+    <t>bnpl59999421994</t>
+  </si>
+  <si>
+    <t>TGMETJ</t>
+  </si>
+  <si>
+    <t>9489706893</t>
+  </si>
+  <si>
+    <t>Hira</t>
+  </si>
+  <si>
+    <t>RickyPatla76062@example.net</t>
+  </si>
+  <si>
+    <t>1973-12-14</t>
+  </si>
+  <si>
+    <t>851452028035981</t>
+  </si>
+  <si>
+    <t>1bd1aded6b9317cc</t>
+  </si>
+  <si>
+    <t>221324874253831</t>
+  </si>
+  <si>
+    <t>IDEP715617332781G7RA</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>bnpl59999708068</t>
+  </si>
+  <si>
+    <t>IESHQQ</t>
+  </si>
+  <si>
+    <t>BNPL7156175328823215</t>
+  </si>
+  <si>
+    <t>bnpl59999599164</t>
+  </si>
+  <si>
+    <t>QOCKMF</t>
+  </si>
+  <si>
+    <t>bnpl59999807539</t>
+  </si>
+  <si>
+    <t>KRHNPN</t>
+  </si>
+  <si>
+    <t>bnpl59999851687</t>
+  </si>
+  <si>
+    <t>JMUFQI</t>
+  </si>
+  <si>
+    <t>bnpl59999524252</t>
+  </si>
+  <si>
+    <t>CTTUEB</t>
+  </si>
+  <si>
+    <t>bnpl59999574726</t>
+  </si>
+  <si>
+    <t>HOFUAM</t>
+  </si>
+  <si>
+    <t>bnpl59999524457</t>
+  </si>
+  <si>
+    <t>SOLOFO</t>
+  </si>
+  <si>
+    <t>bnpl59999412598</t>
+  </si>
+  <si>
+    <t>DQACJS</t>
+  </si>
+  <si>
+    <t>bnpl59999532074</t>
+  </si>
+  <si>
+    <t>KSIGFP</t>
+  </si>
+  <si>
+    <t>bnpl59999643650</t>
+  </si>
+  <si>
+    <t>PGRDRS</t>
+  </si>
+  <si>
+    <t>156.0</t>
+  </si>
+  <si>
+    <t>335577019489706893</t>
+  </si>
+  <si>
+    <t>ICIC97331722594</t>
+  </si>
+  <si>
+    <t>ICIC98057019616</t>
+  </si>
+  <si>
+    <t>6795185883</t>
+  </si>
+  <si>
+    <t>AkhilSodhani55893@example.net</t>
+  </si>
+  <si>
+    <t>1981-11-21</t>
+  </si>
+  <si>
+    <t>113509386700979</t>
+  </si>
+  <si>
+    <t>3bb7a03857839db2</t>
+  </si>
+  <si>
+    <t>496420545446339</t>
+  </si>
+  <si>
+    <t>IDEP571618288523BHMQ</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>bnpl59999112785</t>
+  </si>
+  <si>
+    <t>ESCQKL</t>
+  </si>
+  <si>
+    <t>BNPL6157184983583192</t>
+  </si>
+  <si>
+    <t>bnpl59999846944</t>
+  </si>
+  <si>
+    <t>FRTEME</t>
+  </si>
+  <si>
+    <t>bnpl59999947080</t>
+  </si>
+  <si>
+    <t>USSMHE</t>
+  </si>
+  <si>
+    <t>bnpl59999378925</t>
+  </si>
+  <si>
+    <t>LONUBJ</t>
+  </si>
+  <si>
+    <t>bnpl59999439022</t>
+  </si>
+  <si>
+    <t>HNSPKC</t>
+  </si>
+  <si>
+    <t>bnpl59999696899</t>
+  </si>
+  <si>
+    <t>JQMQNM</t>
+  </si>
+  <si>
+    <t>bnpl59999710018</t>
+  </si>
+  <si>
+    <t>RQGHIO</t>
+  </si>
+  <si>
+    <t>bnpl59999949939</t>
+  </si>
+  <si>
+    <t>CQOAJU</t>
+  </si>
+  <si>
+    <t>bnpl59999581335</t>
+  </si>
+  <si>
+    <t>PIIPLC</t>
+  </si>
+  <si>
+    <t>bnpl59999347820</t>
+  </si>
+  <si>
+    <t>MJIUAJ</t>
+  </si>
+  <si>
+    <t>93.0</t>
+  </si>
+  <si>
+    <t>335577016795185883</t>
+  </si>
+  <si>
+    <t>ICIC96712961821</t>
+  </si>
+  <si>
+    <t>ICIC93770514557</t>
+  </si>
+  <si>
+    <t>7644967871</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>RahimMaharaj23340@example.net</t>
+  </si>
+  <si>
+    <t>1988-01-11</t>
+  </si>
+  <si>
+    <t>872359949281849</t>
+  </si>
+  <si>
+    <t>08f7ac515edc684c</t>
+  </si>
+  <si>
+    <t>868479374136189</t>
+  </si>
+  <si>
+    <t>IDEP617519382826OR38</t>
+  </si>
+  <si>
+    <t>bnpl59999233418</t>
+  </si>
+  <si>
+    <t>OLRNLO</t>
+  </si>
+  <si>
+    <t>BNPL6157195989484186</t>
+  </si>
+  <si>
+    <t>bnpl59999061277</t>
+  </si>
+  <si>
+    <t>QMCQES</t>
+  </si>
+  <si>
+    <t>bnpl59999141971</t>
+  </si>
+  <si>
+    <t>RKQJLS</t>
+  </si>
+  <si>
+    <t>bnpl59999880958</t>
+  </si>
+  <si>
+    <t>SKGIDI</t>
+  </si>
+  <si>
+    <t>bnpl59999422086</t>
+  </si>
+  <si>
+    <t>CCTCEA</t>
+  </si>
+  <si>
+    <t>bnpl59999396447</t>
+  </si>
+  <si>
+    <t>PMRJTH</t>
+  </si>
+  <si>
+    <t>bnpl59999634865</t>
+  </si>
+  <si>
+    <t>HCTBCA</t>
+  </si>
+  <si>
+    <t>bnpl59999460603</t>
+  </si>
+  <si>
+    <t>BSDNDC</t>
+  </si>
+  <si>
+    <t>bnpl59999760811</t>
+  </si>
+  <si>
+    <t>EROFKS</t>
+  </si>
+  <si>
+    <t>bnpl59999546674</t>
+  </si>
+  <si>
+    <t>OPFEHG</t>
+  </si>
+  <si>
+    <t>104.0</t>
+  </si>
+  <si>
+    <t>335577017644967871</t>
+  </si>
+  <si>
+    <t>ICIC94691132490</t>
+  </si>
+  <si>
+    <t>ICIC86476458793</t>
+  </si>
+  <si>
+    <t>9512796355</t>
+  </si>
+  <si>
+    <t>Heena</t>
+  </si>
+  <si>
+    <t>WafiqGulati74596@example.net</t>
+  </si>
+  <si>
+    <t>1973-11-24</t>
+  </si>
+  <si>
+    <t>944001012833908</t>
+  </si>
+  <si>
+    <t>8e8b55293db2843f</t>
+  </si>
+  <si>
+    <t>282515733901678</t>
+  </si>
+  <si>
+    <t>IDEP156728935438SXAI</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>bnpl59999823137</t>
+  </si>
+  <si>
+    <t>IJDDTH</t>
+  </si>
+  <si>
+    <t>BNPL7516211594589548</t>
+  </si>
+  <si>
+    <t>bnpl59999417515</t>
+  </si>
+  <si>
+    <t>CKUMKA</t>
+  </si>
+  <si>
+    <t>bnpl59999443553</t>
+  </si>
+  <si>
+    <t>FUCMRU</t>
+  </si>
+  <si>
+    <t>bnpl59999645020</t>
+  </si>
+  <si>
+    <t>FNUKSH</t>
+  </si>
+  <si>
+    <t>bnpl59999238033</t>
+  </si>
+  <si>
+    <t>RJCNFH</t>
+  </si>
+  <si>
+    <t>bnpl59999268199</t>
+  </si>
+  <si>
+    <t>HRNCUE</t>
+  </si>
+  <si>
+    <t>bnpl59999255335</t>
+  </si>
+  <si>
+    <t>KIMCPK</t>
+  </si>
+  <si>
+    <t>bnpl59999877007</t>
+  </si>
+  <si>
+    <t>RGGOMB</t>
+  </si>
+  <si>
+    <t>bnpl59999909197</t>
+  </si>
+  <si>
+    <t>AKBFFR</t>
+  </si>
+  <si>
+    <t>bnpl59999976008</t>
+  </si>
+  <si>
+    <t>NILUGF</t>
+  </si>
+  <si>
+    <t>157.0</t>
+  </si>
+  <si>
+    <t>335577019512796355</t>
+  </si>
+  <si>
+    <t>ICIC99490444619</t>
+  </si>
+  <si>
+    <t>ICIC96029174507</t>
+  </si>
+  <si>
+    <t>9546287268</t>
+  </si>
+  <si>
+    <t>Nidhi</t>
+  </si>
+  <si>
+    <t>YadunandanBadal42947@example.net</t>
+  </si>
+  <si>
+    <t>1992-07-23</t>
+  </si>
+  <si>
+    <t>578216596271209</t>
+  </si>
+  <si>
+    <t>fdd315bdcc627767</t>
+  </si>
+  <si>
+    <t>210385685212087</t>
+  </si>
+  <si>
+    <t>IDEP671521947428RBXL</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>bnpl59999090794</t>
+  </si>
+  <si>
+    <t>IKNGCF</t>
+  </si>
+  <si>
+    <t>BNPL5176221541176543</t>
+  </si>
+  <si>
+    <t>bnpl59999253013</t>
+  </si>
+  <si>
+    <t>QRTQPP</t>
+  </si>
+  <si>
+    <t>bnpl59999406233</t>
+  </si>
+  <si>
+    <t>JGASOP</t>
+  </si>
+  <si>
+    <t>bnpl59999806389</t>
+  </si>
+  <si>
+    <t>TKFGKS</t>
+  </si>
+  <si>
+    <t>bnpl59999638950</t>
+  </si>
+  <si>
+    <t>HNLDQT</t>
+  </si>
+  <si>
+    <t>bnpl59999430466</t>
+  </si>
+  <si>
+    <t>NGBFOO</t>
+  </si>
+  <si>
+    <t>bnpl59999256141</t>
+  </si>
+  <si>
+    <t>KCHTFI</t>
+  </si>
+  <si>
+    <t>bnpl59999451751</t>
+  </si>
+  <si>
+    <t>DCBDEK</t>
+  </si>
+  <si>
+    <t>bnpl59999672031</t>
+  </si>
+  <si>
+    <t>BCODSH</t>
+  </si>
+  <si>
+    <t>bnpl59999406644</t>
+  </si>
+  <si>
+    <t>AJNLGU</t>
+  </si>
+  <si>
+    <t>138.0</t>
+  </si>
+  <si>
+    <t>335577019546287268</t>
+  </si>
+  <si>
+    <t>ICIC98418198972</t>
+  </si>
+  <si>
+    <t>ICIC99236680016</t>
+  </si>
+  <si>
+    <t>8525625717</t>
+  </si>
+  <si>
+    <t>Kasturba</t>
+  </si>
+  <si>
+    <t>VijayDugar57783@example.net</t>
+  </si>
+  <si>
+    <t>1972-11-22</t>
+  </si>
+  <si>
+    <t>869103322732407</t>
+  </si>
+  <si>
+    <t>79c45373989f6453</t>
+  </si>
+  <si>
+    <t>127879773917591</t>
+  </si>
+  <si>
+    <t>IDEP167522942685R9FA</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>bnpl59999684403</t>
+  </si>
+  <si>
+    <t>BUCOMK</t>
+  </si>
+  <si>
+    <t>BNPL7165231328177625</t>
+  </si>
+  <si>
+    <t>bnpl59999435992</t>
+  </si>
+  <si>
+    <t>TGQRGS</t>
+  </si>
+  <si>
+    <t>bnpl59999994544</t>
+  </si>
+  <si>
+    <t>LOCTUU</t>
+  </si>
+  <si>
+    <t>bnpl59999654939</t>
+  </si>
+  <si>
+    <t>TRMOPT</t>
+  </si>
+  <si>
+    <t>bnpl59999894760</t>
+  </si>
+  <si>
+    <t>OBRJAL</t>
+  </si>
+  <si>
+    <t>bnpl59999254906</t>
+  </si>
+  <si>
+    <t>UKDIGN</t>
+  </si>
+  <si>
+    <t>bnpl59999930277</t>
+  </si>
+  <si>
+    <t>OQNLQO</t>
+  </si>
+  <si>
+    <t>bnpl59999224582</t>
+  </si>
+  <si>
+    <t>EDKEIS</t>
+  </si>
+  <si>
+    <t>bnpl59999552114</t>
+  </si>
+  <si>
+    <t>HTFJCH</t>
+  </si>
+  <si>
+    <t>bnpl59999380389</t>
+  </si>
+  <si>
+    <t>AMQJAG</t>
+  </si>
+  <si>
+    <t>106.0</t>
+  </si>
+  <si>
+    <t>335577018525625717</t>
+  </si>
+  <si>
+    <t>ICIC94041643945</t>
+  </si>
+  <si>
+    <t>ICIC88881264673</t>
   </si>
 </sst>
 </file>
@@ -4137,7 +5364,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1170</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -4257,20 +5484,22 @@
         <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>1177</v>
+        <v>1580</v>
       </c>
       <c r="C2" t="s">
-        <v>604</v>
+        <v>1581</v>
       </c>
       <c r="D2" t="s">
         <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>1196</v>
-      </c>
-      <c r="F2"/>
+        <v>1601</v>
+      </c>
+      <c r="F2" t="s">
+        <v>276</v>
+      </c>
       <c r="G2" t="s">
-        <v>1197</v>
+        <v>1602</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -4606,7 +5835,9 @@
       <c r="A2" t="s">
         <v>152</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>1584</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>155</v>
       </c>
@@ -4702,16 +5933,16 @@
         <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>1175</v>
+        <v>1578</v>
       </c>
       <c r="C2" t="s">
-        <v>1176</v>
+        <v>1579</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>1174</v>
+        <v>1577</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4814,7 +6045,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1167</v>
+        <v>1604</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>173</v>
@@ -4826,7 +6057,7 @@
         <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>1168</v>
+        <v>1605</v>
       </c>
       <c r="H2" s="22">
         <v>44798.630833333336</v>
@@ -4835,7 +6066,7 @@
         <v>175</v>
       </c>
       <c r="J2" t="n">
-        <v>128.0</v>
+        <v>177.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -5282,13 +6513,13 @@
         <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>1171</v>
+        <v>1574</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1172</v>
+        <v>1575</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1173</v>
+        <v>1576</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>219</v>
@@ -6067,7 +7298,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1167</v>
+        <v>1604</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>173</v>
@@ -6079,7 +7310,7 @@
         <v>181</v>
       </c>
       <c r="G2" t="s">
-        <v>1169</v>
+        <v>1606</v>
       </c>
       <c r="H2" s="22">
         <v>44798.630833333336</v>
@@ -6088,7 +7319,7 @@
         <v>175</v>
       </c>
       <c r="J2" t="n">
-        <v>128.0</v>
+        <v>177.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -6215,10 +7446,10 @@
         <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>1170</v>
+        <v>1573</v>
       </c>
       <c r="E2" t="s">
-        <v>1172</v>
+        <v>1575</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>63</v>
@@ -6230,7 +7461,7 @@
         <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1174</v>
+        <v>1577</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>66</v>
@@ -6239,10 +7470,10 @@
         <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>1177</v>
+        <v>1580</v>
       </c>
       <c r="M2" t="n">
-        <v>4233261.0</v>
+        <v>4234184.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>68</v>
@@ -6302,7 +7533,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1170</v>
+        <v>1573</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -6319,7 +7550,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1170</v>
+        <v>1573</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -6336,7 +7567,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1170</v>
+        <v>1573</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -6353,7 +7584,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1170</v>
+        <v>1573</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -6370,7 +7601,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1170</v>
+        <v>1573</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -6539,7 +7770,7 @@
         <v>76</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>1174</v>
+        <v>1577</v>
       </c>
       <c r="F2" s="15">
         <v>18.939800000000002</v>
@@ -6783,7 +8014,7 @@
         <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>1174</v>
+        <v>1577</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>66</v>
@@ -6998,7 +8229,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>1171</v>
+        <v>1574</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>103</v>
@@ -7081,7 +8312,7 @@
         <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>1177</v>
+        <v>1580</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>109</v>
@@ -7379,7 +8610,7 @@
         <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>1177</v>
+        <v>1580</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -7399,7 +8630,7 @@
         <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>1177</v>
+        <v>1580</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -7419,7 +8650,7 @@
         <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>1177</v>
+        <v>1580</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -7439,7 +8670,7 @@
         <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>1177</v>
+        <v>1580</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -7459,7 +8690,7 @@
         <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>1177</v>
+        <v>1580</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -7479,7 +8710,7 @@
         <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>1177</v>
+        <v>1580</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -7499,7 +8730,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>1177</v>
+        <v>1580</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -7558,7 +8789,7 @@
         <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>604</v>
+        <v>1581</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>239</v>
@@ -7572,7 +8803,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>604</v>
+        <v>1581</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>239</v>
